--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AEA345-CB62-4F6A-9DCD-AE5BE261E9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A15CE4-7331-4C72-84BD-25D6F512EA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,43 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgsrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pivot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.1875</t>
+  </si>
+  <si>
+    <t>0.5,0.1875</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Tower/1001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Tower/1002.png</t>
+  </si>
+  <si>
+    <t>/Enemy/2001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Enemy/2002.png</t>
+  </si>
+  <si>
+    <t>pixelperunit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,9 +153,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,134 +478,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2001</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>5</v>
+      <c r="E2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2002</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>5</v>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{03BE8DB2-3E4C-4C0E-9BF1-528DB96C6C60}">
+      <formula1>COUNTIFS($A:$A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B29847-794D-4111-A9E5-2858606572C7}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>5</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{1F15BD78-2C76-416A-AA9B-FA64F5D504AF}">
+      <formula1>COUNTIF(A:A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A15CE4-7331-4C72-84BD-25D6F512EA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C201B0DF-C55C-4712-A4E3-2C058BFA97ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>pixelperunit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackspeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,23 +482,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -511,16 +513,19 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -536,17 +541,20 @@
       <c r="E2" s="1">
         <v>2.5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -557,18 +565,21 @@
         <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>24</v>
       </c>
     </row>
@@ -589,7 +600,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -635,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -661,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C201B0DF-C55C-4712-A4E3-2C058BFA97ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ED435A-85BC-4D89-A007-894F3C8260FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,26 @@
   </si>
   <si>
     <t>attackspeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST3</t>
+  </si>
+  <si>
+    <t>/Tower/1003.png</t>
+  </si>
+  <si>
+    <t>TEST4</t>
+  </si>
+  <si>
+    <t>/Tower/1004.png</t>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,11 +502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -496,7 +516,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -504,28 +524,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -533,28 +559,34 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>150</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -562,24 +594,100 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>300</v>
+      </c>
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>400</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1">
         <v>24</v>
       </c>
     </row>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ED435A-85BC-4D89-A007-894F3C8260FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3854C2-9E44-48F8-A1AA-DD8D52A61075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="5" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -504,9 +504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -583,7 +583,7 @@
         <v>13</v>
       </c>
       <c r="K2" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -653,7 +653,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -688,7 +688,7 @@
         <v>12</v>
       </c>
       <c r="K5" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -706,9 +706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B29847-794D-4111-A9E5-2858606572C7}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -769,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -795,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3854C2-9E44-48F8-A1AA-DD8D52A61075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED14829-E9B9-4C26-9004-4E69A838CE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="5" r:id="rId1"/>
     <sheet name="Enemy" sheetId="6" r:id="rId2"/>
+    <sheet name="EnumData" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +132,102 @@
   </si>
   <si>
     <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACKSPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DifficultyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPriority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RARE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEROIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEGENDARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B29847-794D-4111-A9E5-2858606572C7}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
@@ -807,4 +904,111 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED14829-E9B9-4C26-9004-4E69A838CE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934C49A6-AFE9-4EF9-AFA8-572380275B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,53 @@
   </si>
   <si>
     <t>WEAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerMainStatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISTANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABILITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REWARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterStatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Enemy/2003.png</t>
+  </si>
+  <si>
+    <t>0.5,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,11 +848,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B29847-794D-4111-A9E5-2858606572C7}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -817,7 +864,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -825,79 +872,117 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="1">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{1F15BD78-2C76-416A-AA9B-FA64F5D504AF}">
       <formula1>COUNTIF(A:A,A1)=1</formula1>
     </dataValidation>
@@ -908,10 +993,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1007,6 +1092,40 @@
         <v>49</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934C49A6-AFE9-4EF9-AFA8-572380275B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6A4B6F-7EBE-4E15-B477-129B79880D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +275,14 @@
   </si>
   <si>
     <t>0.5,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,23 +856,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B29847-794D-4111-A9E5-2858606572C7}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -881,19 +889,25 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
@@ -910,19 +924,25 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2002</v>
       </c>
@@ -939,19 +959,25 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2003</v>
       </c>
@@ -968,15 +994,21 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>36</v>
       </c>
     </row>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6A4B6F-7EBE-4E15-B477-129B79880D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CBAA05-927B-4CDB-943E-9BB1BDCE2821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerMainStatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISTANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABILITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REWARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterStatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Enemy/2003.png</t>
+  </si>
+  <si>
+    <t>0.5,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>STRONG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,58 +286,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WATER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NATURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerMainStatType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISTANCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABILITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REWARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterStatType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Enemy/2003.png</t>
-  </si>
-  <si>
-    <t>0.5,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
+    <t>ELEMENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -858,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B29847-794D-4111-A9E5-2858606572C7}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
@@ -880,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -889,10 +893,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -947,7 +951,7 @@
         <v>2002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -982,7 +986,7 @@
         <v>2003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1003,10 +1007,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K4" s="1">
         <v>36</v>
@@ -1027,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1118,44 +1122,47 @@
         <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CBAA05-927B-4CDB-943E-9BB1BDCE2821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6021855-27A7-44B7-A50E-73008EC060A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,54 @@
   <si>
     <t>ELEMENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST5</t>
+  </si>
+  <si>
+    <t>/Tower/1005.png</t>
+  </si>
+  <si>
+    <t>TEST6</t>
+  </si>
+  <si>
+    <t>/Tower/1006.png</t>
+  </si>
+  <si>
+    <t>TEST7</t>
+  </si>
+  <si>
+    <t>/Tower/1007.png</t>
+  </si>
+  <si>
+    <t>TEST8</t>
+  </si>
+  <si>
+    <t>/Tower/1008.png</t>
+  </si>
+  <si>
+    <t>TEST9</t>
+  </si>
+  <si>
+    <t>/Tower/1009.png</t>
+  </si>
+  <si>
+    <t>TEST10</t>
+  </si>
+  <si>
+    <t>/Tower/1010.png</t>
+  </si>
+  <si>
+    <t>TEST11</t>
+  </si>
+  <si>
+    <t>/Tower/1011.png</t>
+  </si>
+  <si>
+    <t>TEST12</t>
+  </si>
+  <si>
+    <t>/Tower/1012.png</t>
   </si>
 </sst>
 </file>
@@ -658,11 +706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -715,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -730,7 +778,7 @@
         <v>2.5</v>
       </c>
       <c r="H2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
@@ -765,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
@@ -785,22 +833,22 @@
         <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>4</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
@@ -820,22 +868,22 @@
         <v>22</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F5" s="1">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
@@ -844,6 +892,286 @@
         <v>12</v>
       </c>
       <c r="K5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>150</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>400</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>700</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>150</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>200</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>400</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>700</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="1">
         <v>20</v>
       </c>
     </row>
@@ -864,7 +1192,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1031,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6021855-27A7-44B7-A50E-73008EC060A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CA9DF6-51B9-4763-A884-3320D6294BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TowerMainStatType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAMAGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +332,73 @@
   </si>
   <si>
     <t>/Tower/1012.png</t>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerStatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLDMINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTISHOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPLASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTDAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Tower/1013.png</t>
+  </si>
+  <si>
+    <t>0.5,0.1875</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2;6,3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2;7,30;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,15;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2;5,1.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,30;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -706,21 +769,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10:E13"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -746,16 +811,19 @@
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -780,17 +848,17 @@
       <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -815,17 +883,17 @@
       <c r="H3" s="1">
         <v>1.5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -851,16 +919,19 @@
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -886,21 +957,24 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -920,22 +994,22 @@
       <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -956,21 +1030,24 @@
         <v>1.5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -990,22 +1067,22 @@
       <c r="H8" s="1">
         <v>5</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="J8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1026,21 +1103,24 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1060,22 +1140,22 @@
       <c r="H10" s="1">
         <v>2</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="J10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1096,21 +1176,24 @@
         <v>1.5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1130,22 +1213,22 @@
       <c r="H12" s="1">
         <v>5</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="J12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1012</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -1166,12 +1249,53 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>150</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="1">
         <v>20</v>
       </c>
     </row>
@@ -1221,10 +1345,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1335,10 +1459,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="K4" s="1">
         <v>36</v>
@@ -1357,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1368,7 +1492,7 @@
     <col min="1" max="1" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1385,7 +1509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1408,7 +1532,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1422,7 +1546,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1439,7 +1563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1450,41 +1574,56 @@
         <v>47</v>
       </c>
       <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
         <v>62</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>63</v>
       </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
         <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>49</v>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CA9DF6-51B9-4763-A884-3320D6294BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBFCAA1-3997-4FBA-9D8E-1F0C7BDD9A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
@@ -377,10 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,2;6,3;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7,10;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,6 +394,10 @@
   </si>
   <si>
     <t>3,30;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2;6,2;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,7 +773,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -957,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>23</v>
@@ -1030,7 +1030,7 @@
         <v>1.5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>67</v>
@@ -1103,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>71</v>
@@ -1176,7 +1176,7 @@
         <v>1.5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>75</v>
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>79</v>
@@ -1287,7 +1287,7 @@
         <v>0.5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>88</v>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBFCAA1-3997-4FBA-9D8E-1F0C7BDD9A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2974979B-3C43-4A11-993C-3075BF7EF542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,6 +398,10 @@
   </si>
   <si>
     <t>4,2;6,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
@@ -1483,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1582,6 +1586,9 @@
       <c r="F5" t="s">
         <v>63</v>
       </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2974979B-3C43-4A11-993C-3075BF7EF542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D6D7AF-CCD9-4E01-AD87-D3581CAB5CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="5" r:id="rId1"/>
@@ -93,20 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Tower/1001.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Tower/1002.png</t>
-  </si>
-  <si>
-    <t>/Enemy/2001.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Enemy/2002.png</t>
-  </si>
-  <si>
     <t>pixelperunit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,15 +104,9 @@
     <t>TEST3</t>
   </si>
   <si>
-    <t>/Tower/1003.png</t>
-  </si>
-  <si>
     <t>TEST4</t>
   </si>
   <si>
-    <t>/Tower/1004.png</t>
-  </si>
-  <si>
     <t>grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,9 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Enemy/2003.png</t>
-  </si>
-  <si>
     <t>0.5,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,51 +266,27 @@
     <t>TEST5</t>
   </si>
   <si>
-    <t>/Tower/1005.png</t>
-  </si>
-  <si>
     <t>TEST6</t>
   </si>
   <si>
-    <t>/Tower/1006.png</t>
-  </si>
-  <si>
     <t>TEST7</t>
   </si>
   <si>
-    <t>/Tower/1007.png</t>
-  </si>
-  <si>
     <t>TEST8</t>
   </si>
   <si>
-    <t>/Tower/1008.png</t>
-  </si>
-  <si>
     <t>TEST9</t>
   </si>
   <si>
-    <t>/Tower/1009.png</t>
-  </si>
-  <si>
     <t>TEST10</t>
   </si>
   <si>
-    <t>/Tower/1010.png</t>
-  </si>
-  <si>
     <t>TEST11</t>
   </si>
   <si>
-    <t>/Tower/1011.png</t>
-  </si>
-  <si>
     <t>TEST12</t>
   </si>
   <si>
-    <t>/Tower/1012.png</t>
-  </si>
-  <si>
     <t>ability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,9 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Tower/1013.png</t>
-  </si>
-  <si>
     <t>0.5,0.1875</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,6 +353,56 @@
   <si>
     <t>DEBUFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1002.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1003.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1004.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1005.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1006.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1007.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1008.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1009.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1010.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1011.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1012.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1013.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Enemy/2001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Enemy/2002.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Enemy/2003.png</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -853,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>13</v>
@@ -888,7 +888,7 @@
         <v>1.5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>12</v>
@@ -902,7 +902,7 @@
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -923,10 +923,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>12</v>
@@ -940,7 +940,7 @@
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>12</v>
@@ -978,7 +978,7 @@
         <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>12</v>
@@ -1013,7 +1013,7 @@
         <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1034,10 +1034,10 @@
         <v>1.5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>12</v>
@@ -1051,7 +1051,7 @@
         <v>1007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>12</v>
@@ -1086,7 +1086,7 @@
         <v>1008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>12</v>
@@ -1124,7 +1124,7 @@
         <v>1009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1145,7 +1145,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>12</v>
@@ -1159,7 +1159,7 @@
         <v>1010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1180,10 +1180,10 @@
         <v>1.5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>12</v>
@@ -1197,7 +1197,7 @@
         <v>1011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1218,7 +1218,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>12</v>
@@ -1232,7 +1232,7 @@
         <v>1012</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -1253,10 +1253,10 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>12</v>
@@ -1270,7 +1270,7 @@
         <v>1013</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1291,13 +1291,13 @@
         <v>0.5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="L14" s="1">
         <v>20</v>
@@ -1318,9 +1318,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B29847-794D-4111-A9E5-2858606572C7}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -1349,10 +1349,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1364,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1372,7 +1372,7 @@
         <v>2001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
@@ -1407,7 +1407,7 @@
         <v>2002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1428,7 +1428,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -1442,7 +1442,7 @@
         <v>2003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1463,10 +1463,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K4" s="1">
         <v>36</v>
@@ -1487,7 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1498,145 +1498,145 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D6D7AF-CCD9-4E01-AD87-D3581CAB5CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7035FB3D-1CC7-43E8-9209-E9B4278FBAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="5" r:id="rId1"/>
@@ -163,246 +163,246 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RARE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEROIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEGENDARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISTANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABILITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REWARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterStatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST5</t>
+  </si>
+  <si>
+    <t>TEST6</t>
+  </si>
+  <si>
+    <t>TEST7</t>
+  </si>
+  <si>
+    <t>TEST8</t>
+  </si>
+  <si>
+    <t>TEST9</t>
+  </si>
+  <si>
+    <t>TEST10</t>
+  </si>
+  <si>
+    <t>TEST11</t>
+  </si>
+  <si>
+    <t>TEST12</t>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerStatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLDMINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTISHOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPLASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTDAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.1875</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2;7,30;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,15;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2;5,1.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,30;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2;6,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1002.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1003.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1004.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1005.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1006.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1007.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1008.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1009.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1010.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1011.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1012.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1013.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Enemy/2001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Enemy/2002.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Enemy/2003.png</t>
+  </si>
+  <si>
     <t>TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WATER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NATURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RARE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEROIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEGENDARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIRST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WATER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NATURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISTANCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABILITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REWARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterStatType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRONG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEAK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELEMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST5</t>
-  </si>
-  <si>
-    <t>TEST6</t>
-  </si>
-  <si>
-    <t>TEST7</t>
-  </si>
-  <si>
-    <t>TEST8</t>
-  </si>
-  <si>
-    <t>TEST9</t>
-  </si>
-  <si>
-    <t>TEST10</t>
-  </si>
-  <si>
-    <t>TEST11</t>
-  </si>
-  <si>
-    <t>TEST12</t>
-  </si>
-  <si>
-    <t>ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerStatType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOLDMINE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MULTISHOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPLASH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOTDAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,0.1875</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,10;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,2;7,30;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,15;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,2;5,1.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,30;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,2;6,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1001.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1002.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1003.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1004.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1005.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1006.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1007.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1008.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1009.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1010.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1011.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1012.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1013.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Enemy/2001.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Enemy/2002.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Enemy/2003.png</t>
   </si>
 </sst>
 </file>
@@ -815,7 +815,7 @@
         <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -853,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>13</v>
@@ -888,7 +888,7 @@
         <v>1.5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>12</v>
@@ -923,10 +923,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>12</v>
@@ -961,10 +961,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>12</v>
@@ -978,7 +978,7 @@
         <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>12</v>
@@ -1013,7 +1013,7 @@
         <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1034,10 +1034,10 @@
         <v>1.5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>12</v>
@@ -1051,7 +1051,7 @@
         <v>1007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>12</v>
@@ -1086,7 +1086,7 @@
         <v>1008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>12</v>
@@ -1124,7 +1124,7 @@
         <v>1009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1145,7 +1145,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>12</v>
@@ -1159,7 +1159,7 @@
         <v>1010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1180,10 +1180,10 @@
         <v>1.5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>12</v>
@@ -1197,7 +1197,7 @@
         <v>1011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1218,7 +1218,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>12</v>
@@ -1232,7 +1232,7 @@
         <v>1012</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -1253,10 +1253,10 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>12</v>
@@ -1270,7 +1270,7 @@
         <v>1013</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1291,13 +1291,13 @@
         <v>0.5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L14" s="1">
         <v>20</v>
@@ -1318,7 +1318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B29847-794D-4111-A9E5-2858606572C7}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:I4"/>
     </sheetView>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -1349,10 +1349,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1372,7 +1372,7 @@
         <v>2001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
@@ -1407,7 +1407,7 @@
         <v>2002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1428,7 +1428,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -1442,7 +1442,7 @@
         <v>2003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1463,10 +1463,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="1">
         <v>36</v>
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1527,13 +1527,13 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1541,13 +1541,13 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1555,16 +1555,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1572,71 +1572,71 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>55</v>
       </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
         <v>67</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>68</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>69</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>70</v>
-      </c>
-      <c r="I6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
       <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7035FB3D-1CC7-43E8-9209-E9B4278FBAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632A9916-C7DB-431D-ADF8-BAB383583F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-24390" yWindow="7305" windowWidth="25830" windowHeight="11625" activeTab="3" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="5" r:id="rId1"/>
     <sheet name="Enemy" sheetId="6" r:id="rId2"/>
     <sheet name="EnumData" sheetId="7" r:id="rId3"/>
+    <sheet name="Round" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="107">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +403,41 @@
   </si>
   <si>
     <t>TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>units</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002,2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002,2001</t>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,6 +494,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1487,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1643,4 +1682,76 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3433CC4-0965-4602-82C6-05F8C3A6D438}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A6" xr:uid="{F85E7059-D32B-4D8F-97DE-23444DAF66C9}">
+      <formula1>COUNTIFS($A:$A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632A9916-C7DB-431D-ADF8-BAB383583F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F61458-E514-43BF-A7C7-DA7645CD9C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24390" yWindow="7305" windowWidth="25830" windowHeight="11625" activeTab="3" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-27450" yWindow="7305" windowWidth="15285" windowHeight="11625" firstSheet="1" activeTab="5" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="5" r:id="rId1"/>
     <sheet name="Enemy" sheetId="6" r:id="rId2"/>
     <sheet name="EnumData" sheetId="7" r:id="rId3"/>
     <sheet name="Round" sheetId="8" r:id="rId4"/>
+    <sheet name="TowerLang" sheetId="10" r:id="rId5"/>
+    <sheet name="EnemyLang" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,6 +440,82 @@
   </si>
   <si>
     <t>25,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LanguageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOREAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트1,TEST1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트2,TEST2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트3,TEST3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트4,TEST4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트5,TEST5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트6,TEST6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트7,TEST7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트8,TEST8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트9,TEST9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트10,TEST10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트11,TEST11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트12,TEST12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트13,TEST13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불슬라임,FIRE SLIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물슬라임,WATER SLIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀슬라임,NATURE SLIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1524,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1678,6 +1756,17 @@
         <v>43</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1688,7 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3433CC4-0965-4602-82C6-05F8C3A6D438}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1754,4 +1843,180 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060EA702-F943-43A4-94A3-ADC665824C53}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D891E26-F344-43F0-B18D-5B8B9363B2A6}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F61458-E514-43BF-A7C7-DA7645CD9C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41094EBB-1987-4FAC-B0E8-DD6A6A35E206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27450" yWindow="7305" windowWidth="15285" windowHeight="11625" firstSheet="1" activeTab="5" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-22785" yWindow="6375" windowWidth="19485" windowHeight="12165" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="5" r:id="rId1"/>
     <sheet name="Enemy" sheetId="6" r:id="rId2"/>
     <sheet name="EnumData" sheetId="7" r:id="rId3"/>
     <sheet name="Round" sheetId="8" r:id="rId4"/>
-    <sheet name="TowerLang" sheetId="10" r:id="rId5"/>
-    <sheet name="EnemyLang" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,13 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TEST1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST2</t>
-  </si>
-  <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,236 +83,198 @@
     <t>0.5,0.1875</t>
   </si>
   <si>
+    <t>pixelperunit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackspeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACKSPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DifficultyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPriority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RARE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEROIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEGENDARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISTANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABILITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REWARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterStatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerStatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLDMINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTISHOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPLASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTDAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0.5,0.1875</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pixelperunit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackspeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST3</t>
-  </si>
-  <si>
-    <t>TEST4</t>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POWER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTACKSPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DifficultyType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackPriority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WATER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NATURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RARE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEROIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEGENDARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIRST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WATER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NATURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISTANCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABILITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REWARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterStatType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRONG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEAK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELEMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST5</t>
-  </si>
-  <si>
-    <t>TEST6</t>
-  </si>
-  <si>
-    <t>TEST7</t>
-  </si>
-  <si>
-    <t>TEST8</t>
-  </si>
-  <si>
-    <t>TEST9</t>
-  </si>
-  <si>
-    <t>TEST10</t>
-  </si>
-  <si>
-    <t>TEST11</t>
-  </si>
-  <si>
-    <t>TEST12</t>
-  </si>
-  <si>
-    <t>ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerStatType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOLDMINE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MULTISHOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPLASH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOTDAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,0.1875</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5,1.5;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,19 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Sprites/Tower/1001.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1002.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1003.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1004.png</t>
-  </si>
-  <si>
     <t>/Sprites/Tower/1005.png</t>
   </si>
   <si>
@@ -455,26 +395,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트1,TEST1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트2,TEST2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트3,TEST3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트4,TEST4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트5,TEST5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>불슬라임,FIRE SLIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물슬라임,WATER SLIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀슬라임,NATURE SLIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1000000.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1000001.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1000002.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1000003.png</t>
+  </si>
+  <si>
+    <t>0.5,0.0625</t>
+  </si>
+  <si>
+    <t>0.5,0.0625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1000006.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1000009.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1000012.png</t>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1001004.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1002005.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1001007.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1002008.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1001010.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1002011.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>테스트6,TEST6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,15 +496,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>불슬라임,FIRE SLIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물슬라임,WATER SLIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풀슬라임,NATURE SLIME</t>
+    <t>/Sprites/Tower/1001023.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1003024.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1000022.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1003021.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1002013.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1001014.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1003015.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1000016.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1001017.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1002018.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1001019.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Sprites/Tower/1002020.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불,Torch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염병,Molotov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌팔매,Sling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염검,Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염활,Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무도가,Fighter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어볼,FireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어블라스트,FireBlast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인페르노,Inferno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메테오,Metor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블레이즈,Blaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비불,Fire Orb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령,Spirit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,7 +963,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -890,11 +971,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -908,48 +989,48 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1000000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -970,138 +1051,138 @@
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="L2" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H3" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="L3" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>1000002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L4" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1004</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>1000003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="F5" s="1">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L5" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>1001004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>150</v>
@@ -1116,138 +1197,132 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L6" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1006</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>1002005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H7" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L7" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1007</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>1000006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H8" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L8" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1008</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>1001007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="F9" s="1">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L9" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1009</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>1002008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
         <v>150</v>
@@ -1262,168 +1337,909 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L10" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1010</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>1000009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H11" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L11" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>1011</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>1001010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H12" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L12" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>1012</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>1002011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="F13" s="1">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L13" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <v>1000012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>150</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1002013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>150</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1001014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>150</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1003015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>150</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1000016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>150</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1001017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>150</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1002018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>150</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>1001019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>150</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1002020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>150</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1003021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>150</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1000022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>150</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1001023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>150</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>1003024</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>150</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>150</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>200</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>400</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>700</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>150</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>200</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>400</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>700</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>1013</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>150</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>150</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
         <v>0.5</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="I36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="1">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{03BE8DB2-3E4C-4C0E-9BF1-528DB96C6C60}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A38:A1048576 A1:A36" xr:uid="{03BE8DB2-3E4C-4C0E-9BF1-528DB96C6C60}">
       <formula1>COUNTIFS($A:$A,A1)=1</formula1>
     </dataValidation>
   </dataValidations>
@@ -1437,7 +2253,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I4"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1451,45 +2267,45 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
+      <c r="B2" t="s">
+        <v>93</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1510,10 +2326,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K2" s="1">
         <v>36</v>
@@ -1523,8 +2339,8 @@
       <c r="A3" s="1">
         <v>2002</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
+      <c r="B3" t="s">
+        <v>94</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1545,10 +2361,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K3" s="1">
         <v>36</v>
@@ -1558,8 +2374,8 @@
       <c r="A4" s="1">
         <v>2003</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
+      <c r="B4" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1580,10 +2396,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K4" s="1">
         <v>36</v>
@@ -1604,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1615,156 +2431,156 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1788,50 +2604,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1843,180 +2659,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060EA702-F943-43A4-94A3-ADC665824C53}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1007</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1008</v>
-      </c>
-      <c r="B9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1009</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1010</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1011</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1012</v>
-      </c>
-      <c r="B13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1013</v>
-      </c>
-      <c r="B14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D891E26-F344-43F0-B18D-5B8B9363B2A6}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B34069-C1FE-41D3-86BD-F07644D4081F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BC5659-ED1A-42C7-BA4E-BA15DFF514DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26520" yWindow="5820" windowWidth="19485" windowHeight="12165" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-26520" yWindow="5820" windowWidth="19485" windowHeight="12165" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumData" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,22 @@
   </si>
   <si>
     <t>15,15,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEAD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -768,12 +784,26 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -787,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3433CC4-0965-4602-82C6-05F8C3A6D438}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BC5659-ED1A-42C7-BA4E-BA15DFF514DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8513A386-2961-4FD9-AE66-19999CED71AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26520" yWindow="5820" windowWidth="19485" windowHeight="12165" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-27915" yWindow="4695" windowWidth="19425" windowHeight="12165" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumData" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,22 @@
   </si>
   <si>
     <t>DEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROMPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECTILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -805,6 +821,20 @@
       </c>
       <c r="C9" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8513A386-2961-4FD9-AE66-19999CED71AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB35A150-7639-438E-B190-4FD297EA667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27915" yWindow="4695" windowWidth="19425" windowHeight="12165" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumData" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,7 +182,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOTDAMAGE</t>
+    <t>DEBUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>units</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LanguageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOREAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,2010000,2020000</t>
+  </si>
+  <si>
+    <t>2000000,2010000,2020000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,13,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROMPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECTILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATKSPD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -190,90 +285,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEBUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>units</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amounts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LanguageType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOREAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENGLISH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,2010000,2020000</t>
-  </si>
-  <si>
-    <t>2000000,2010000,2020000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,7,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,13,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,15,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimationType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROMPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJECTILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POINT</t>
+    <t>DebuffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POISON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLEED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,7 +679,7 @@
     <col min="1" max="1" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -672,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -686,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -695,7 +719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -709,7 +733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -726,7 +750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -746,10 +770,10 @@
         <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -763,78 +787,100 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D10" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D12" t="s">
         <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -858,50 +904,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB35A150-7639-438E-B190-4FD297EA667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE6A13D-3BD8-4305-9DAA-981A144B6634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-21375" yWindow="6135" windowWidth="19425" windowHeight="12165" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumData" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>2000000,2010000,2020000</t>
-  </si>
-  <si>
-    <t>2000000,2010000,2020000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -229,14 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13,13,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,15,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AnimationType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,6 +287,14 @@
   </si>
   <si>
     <t>BLEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000100,2010100,2020100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +668,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -795,33 +792,33 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
         <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -846,16 +843,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
         <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -871,16 +871,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
         <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -891,10 +891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3433CC4-0965-4602-82C6-05F8C3A6D438}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -912,18 +912,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -931,15 +931,15 @@
         <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -947,13 +947,21 @@
         <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A6" xr:uid="{F85E7059-D32B-4D8F-97DE-23444DAF66C9}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A7" xr:uid="{F85E7059-D32B-4D8F-97DE-23444DAF66C9}">
       <formula1>COUNTIFS($A:$A,A1)=1</formula1>
     </dataValidation>
   </dataValidations>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE6A13D-3BD8-4305-9DAA-981A144B6634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D269137-645B-4C80-925D-D945FE54A38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21375" yWindow="6135" windowWidth="19425" windowHeight="12165" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-21225" yWindow="6600" windowWidth="19425" windowHeight="12165" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumData" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7,7,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10,10,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,6 +291,18 @@
   </si>
   <si>
     <t>MOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020000,2020001,2020002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021003,2021004,2022005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -792,33 +800,33 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
       <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
         <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>60</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -843,19 +851,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -871,16 +879,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -893,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3433CC4-0965-4602-82C6-05F8C3A6D438}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -912,7 +920,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -920,26 +928,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -947,15 +955,15 @@
         <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D269137-645B-4C80-925D-D945FE54A38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760FBB43-4F0F-49F7-B5B2-A9B1126246EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21225" yWindow="6600" windowWidth="19425" windowHeight="12165" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumData" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,14 @@
   </si>
   <si>
     <t>3,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020100,2020101,2020102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021103,2021104,2022105</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,7 +910,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -936,7 +944,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>44</v>
@@ -944,10 +952,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760FBB43-4F0F-49F7-B5B2-A9B1126246EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12FF347-D3BE-4A11-A74B-6BA70A8358B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-26130" yWindow="6330" windowWidth="19425" windowHeight="11955" firstSheet="2" activeTab="5" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
-    <sheet name="EnumData" sheetId="7" r:id="rId1"/>
-    <sheet name="Round" sheetId="8" r:id="rId2"/>
+    <sheet name="TOWER@FIRE" sheetId="9" r:id="rId1"/>
+    <sheet name="TOWER@WATER" sheetId="10" r:id="rId2"/>
+    <sheet name="TOWER@NATURE" sheetId="11" r:id="rId3"/>
+    <sheet name="ENEMY@FIRE" sheetId="12" r:id="rId4"/>
+    <sheet name="ENEMY@WATER" sheetId="13" r:id="rId5"/>
+    <sheet name="ENEMY@NATURE" sheetId="14" r:id="rId6"/>
+    <sheet name="EnumData" sheetId="7" r:id="rId7"/>
+    <sheet name="Round" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="168">
   <si>
     <t>POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +317,395 @@
   </si>
   <si>
     <t>2021103,2021104,2022105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.0625</t>
+  </si>
+  <si>
+    <t>(1,0,0,1)</t>
+  </si>
+  <si>
+    <t>0.525;1.125;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비불,Fire Orb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블레이즈,Blaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.48;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메테오,Metor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 블라스트,Fire Blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,0,0,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인페르노,Inferno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어볼,FireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0.15;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무도가,Fighter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염활,Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;</t>
+  </si>
+  <si>
+    <t>화염검,Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염병,Molotov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.0625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌팔매,Sling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불,Torch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pivot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgsrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectspf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projattacktime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projspf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attacktime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackspeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;0.8;1.4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함선,Ship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0.6,0.8,1,1)</t>
+  </si>
+  <si>
+    <t>0.6;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스애로우,IceArrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0.6,0.8,1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스볼트,IceBolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로우,Slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수,Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창,Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선장,Captain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적,Pirate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;0.9;</t>
+  </si>
+  <si>
+    <t>바이킹,Viking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;0.8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드루이드,Druid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요정,Fairy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바드,Bard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프 궁수,Elf Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프 창술사,Elf Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.05</t>
+  </si>
+  <si>
+    <t>(1,0,1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>켄타우로스,Centaurs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3;</t>
+  </si>
+  <si>
+    <t>사티로스,Satyr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트래퍼,Trapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다트,Dart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크엘프,Dark Elf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크,Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크엘프 로드, Dark Elf Lord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크엘프 마검사, Dark Elf Magic Knight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크엘프 마법사, Dark Elf Mage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크엘프 어쌔신, Dark Elf Assassin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크엘프 창술사, Dark Elf Spearman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크엘프 검사, Dark Elf Soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크 족장, Chief Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크샤먼, Shaman Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자이언트 오크, Giant Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정예 오크도끼전사, Elite Orc Axe Solider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크도끼전사, Orc Axe Soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크병사, Orc Solider</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +761,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,6 +1079,4181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F370FB-69E7-436B-99AD-BE543F2F51A7}">
+  <dimension ref="A1:S36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="12" width="9" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="18" max="18" width="25" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+        <v>/Sprites/Tower/1000000/</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="1">
+        <v>150</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A3,"/")</f>
+        <v>/Sprites/Tower/1000001/</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1000002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A4,"/")</f>
+        <v>/Sprites/Tower/1000002/</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1000003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1">
+        <v>150</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A5,"/")</f>
+        <v>/Sprites/Tower/1000003/</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1001003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="1">
+        <v>150</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A6,"/")</f>
+        <v>/Sprites/Tower/1001003/</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1002003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="1">
+        <v>150</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A7,"/")</f>
+        <v>/Sprites/Tower/1002003/</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1000004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="1">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A8,"/")</f>
+        <v>/Sprites/Tower/1000004/</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1001004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="1">
+        <v>150</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A9,"/")</f>
+        <v>/Sprites/Tower/1001004/</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1002004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A10,"/")</f>
+        <v>/Sprites/Tower/1002004/</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1000005</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="1">
+        <v>150</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A11,"/")</f>
+        <v>/Sprites/Tower/1000005/</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1001005</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A12,"/")</f>
+        <v>/Sprites/Tower/1001005/</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1002005</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1">
+        <v>150</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A13,"/")</f>
+        <v>/Sprites/Tower/1002005/</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1000006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1">
+        <v>150</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A14,"/")</f>
+        <v>/Sprites/Tower/1000006/</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1001006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1">
+        <v>150</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A15,"/")</f>
+        <v>/Sprites/Tower/1001006/</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1002006</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A16,"/")</f>
+        <v>/Sprites/Tower/1002006/</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1003006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1">
+        <v>150</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A17,"/")</f>
+        <v>/Sprites/Tower/1003006/</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1000007</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1">
+        <v>150</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A18,"/")</f>
+        <v>/Sprites/Tower/1000007/</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1001007</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="1">
+        <v>150</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R19" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A19,"/")</f>
+        <v>/Sprites/Tower/1001007/</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1002007</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1">
+        <v>150</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R20" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A20,"/")</f>
+        <v>/Sprites/Tower/1002007/</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>1001008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1">
+        <v>150</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R21" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A21,"/")</f>
+        <v>/Sprites/Tower/1001008/</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1002008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1">
+        <v>150</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R22" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A22,"/")</f>
+        <v>/Sprites/Tower/1002008/</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1003008</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1">
+        <v>150</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R23" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A23,"/")</f>
+        <v>/Sprites/Tower/1003008/</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A38:A1048576 A1:A36" xr:uid="{03BE8DB2-3E4C-4C0E-9BF1-528DB96C6C60}">
+      <formula1>COUNTIFS($A:$A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3F0F3C-A656-4EC0-A859-21F1263F0A34}">
+  <dimension ref="A1:S36"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="18" max="18" width="25" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1010000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+        <v>/Sprites/Tower/1010000/</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1011000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="1">
+        <v>150</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A3,"/")</f>
+        <v>/Sprites/Tower/1011000/</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1010001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="1">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A4,"/")</f>
+        <v>/Sprites/Tower/1010001/</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1011001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1">
+        <v>150</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A5,"/")</f>
+        <v>/Sprites/Tower/1011001/</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1012001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="1">
+        <v>150</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A6,"/")</f>
+        <v>/Sprites/Tower/1012001/</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1010002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="1">
+        <v>150</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A7,"/")</f>
+        <v>/Sprites/Tower/1010002/</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1011002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="1">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A8,"/")</f>
+        <v>/Sprites/Tower/1011002/</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1012002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>150</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A9,"/")</f>
+        <v>/Sprites/Tower/1012002/</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1010003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="1">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A10,"/")</f>
+        <v>/Sprites/Tower/1010003/</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1011003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="1">
+        <v>150</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A11,"/")</f>
+        <v>/Sprites/Tower/1011003/</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1012003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="1">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A12,"/")</f>
+        <v>/Sprites/Tower/1012003/</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1011004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="1">
+        <v>150</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A13,"/")</f>
+        <v>/Sprites/Tower/1011004/</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1012004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="1">
+        <v>150</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A14,"/")</f>
+        <v>/Sprites/Tower/1012004/</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1010005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="1">
+        <v>150</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>116</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A15,"/")</f>
+        <v>/Sprites/Tower/1010005/</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1011005</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="1">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>116</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A16,"/")</f>
+        <v>/Sprites/Tower/1011005/</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1012005</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="1">
+        <v>150</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>116</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A17,"/")</f>
+        <v>/Sprites/Tower/1012005/</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1010006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="1">
+        <v>150</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="N18" t="s">
+        <v>119</v>
+      </c>
+      <c r="R18" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A18,"/")</f>
+        <v>/Sprites/Tower/1010006/</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1011006</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="1">
+        <v>150</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="N19" t="s">
+        <v>119</v>
+      </c>
+      <c r="R19" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A19,"/")</f>
+        <v>/Sprites/Tower/1011006/</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1012006</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="1">
+        <v>150</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="N20" t="s">
+        <v>116</v>
+      </c>
+      <c r="R20" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A20,"/")</f>
+        <v>/Sprites/Tower/1012006/</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>1013006</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="1">
+        <v>150</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="N21" t="s">
+        <v>116</v>
+      </c>
+      <c r="R21" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A21,"/")</f>
+        <v>/Sprites/Tower/1013006/</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1012007</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="1">
+        <v>150</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R22" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A22,"/")</f>
+        <v>/Sprites/Tower/1012007/</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1013007</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="1">
+        <v>150</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R23" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A23,"/")</f>
+        <v>/Sprites/Tower/1013007/</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A38:A1048576 A1:A36" xr:uid="{37C452C2-8230-488A-AF82-B14A54137F8F}">
+      <formula1>COUNTIFS($A:$A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4F02CE-18E1-4CEC-BC57-9C41A68A4035}">
+  <dimension ref="A1:S36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="11" width="9" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="18" max="18" width="25" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1020000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="1">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>135</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+        <v>/Sprites/Tower/1020000/</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1021000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="1">
+        <v>150</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A3,"/")</f>
+        <v>/Sprites/Tower/1021000/</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1020001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="1">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>147</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A4,"/")</f>
+        <v>/Sprites/Tower/1020001/</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1021001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1">
+        <v>150</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A5,"/")</f>
+        <v>/Sprites/Tower/1021001/</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1022001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="1">
+        <v>150</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A6,"/")</f>
+        <v>/Sprites/Tower/1022001/</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1020002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="1">
+        <v>150</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A7,"/")</f>
+        <v>/Sprites/Tower/1020002/</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1021002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="1">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A8,"/")</f>
+        <v>/Sprites/Tower/1021002/</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1022002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="1">
+        <v>150</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A9,"/")</f>
+        <v>/Sprites/Tower/1022002/</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1020003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="1">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A10,"/")</f>
+        <v>/Sprites/Tower/1020003/</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1021003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="1">
+        <v>150</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A11,"/")</f>
+        <v>/Sprites/Tower/1021003/</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1022003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="1">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A12,"/")</f>
+        <v>/Sprites/Tower/1022003/</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1020004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="1">
+        <v>150</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A13,"/")</f>
+        <v>/Sprites/Tower/1020004/</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1021004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="1">
+        <v>150</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A14,"/")</f>
+        <v>/Sprites/Tower/1021004/</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1022004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="1">
+        <v>150</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A15,"/")</f>
+        <v>/Sprites/Tower/1022004/</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1020005</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="1">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A16,"/")</f>
+        <v>/Sprites/Tower/1020005/</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1021005</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="1">
+        <v>150</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A17,"/")</f>
+        <v>/Sprites/Tower/1021005/</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1022005</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="1">
+        <v>150</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R18" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A18,"/")</f>
+        <v>/Sprites/Tower/1022005/</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1020006</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="1">
+        <v>150</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>137</v>
+      </c>
+      <c r="R19" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A19,"/")</f>
+        <v>/Sprites/Tower/1020006/</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1021006</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="1">
+        <v>150</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>137</v>
+      </c>
+      <c r="R20" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A20,"/")</f>
+        <v>/Sprites/Tower/1021006/</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>1020007</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="1">
+        <v>150</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>135</v>
+      </c>
+      <c r="R21" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A21,"/")</f>
+        <v>/Sprites/Tower/1020007/</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1022007</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="1">
+        <v>150</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>135</v>
+      </c>
+      <c r="R22" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A22,"/")</f>
+        <v>/Sprites/Tower/1022007/</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1020008</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="1">
+        <v>150</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L23">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>134</v>
+      </c>
+      <c r="R23" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A23,"/")</f>
+        <v>/Sprites/Tower/1020008/</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1021008</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="1">
+        <v>150</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="R24" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A24,"/")</f>
+        <v>/Sprites/Tower/1021008/</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1022008</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="1">
+        <v>150</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="R25" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A25,"/")</f>
+        <v>/Sprites/Tower/1022008/</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A38:A1048576 A1:A36" xr:uid="{72310D65-DB5F-4590-BD13-FE3314E794D0}">
+      <formula1>COUNTIFS($A:$A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75967C55-9BA4-40EE-BBD0-AF03F89CCB6F}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A2,"/")</f>
+        <v>/Sprites/Enemy/2000000/</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2000100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A3,"/")</f>
+        <v>/Sprites/Enemy/2000100/</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{1F15BD78-2C76-416A-AA9B-FA64F5D504AF}">
+      <formula1>COUNTIF(A:A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C28BD20-4060-4017-8FFF-9C9E3C00F1E8}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2010000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A2,"/")</f>
+        <v>/Sprites/Enemy/2010000/</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2010100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A3,"/")</f>
+        <v>/Sprites/Enemy/2010100/</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A1048576 A1:A2" xr:uid="{C599AA2A-F464-4210-92BD-79E3075BDA2F}">
+      <formula1>COUNTIF(A:A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F511731-D966-487D-B559-FFB18F3F2C14}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2020000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A2,"/")</f>
+        <v>/Sprites/Enemy/2020000/</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2020001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A3,"/")</f>
+        <v>/Sprites/Enemy/2020001/</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2020002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A4,"/")</f>
+        <v>/Sprites/Enemy/2020002/</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2021002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A5,"/")</f>
+        <v>/Sprites/Enemy/2021002/</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2021003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A6,"/")</f>
+        <v>/Sprites/Enemy/2021003/</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2021004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A7,"/")</f>
+        <v>/Sprites/Enemy/2021004/</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2022005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A8,"/")</f>
+        <v>/Sprites/Enemy/2022005/</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2020100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A9,"/")</f>
+        <v>/Sprites/Enemy/2020100/</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2020101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A10,"/")</f>
+        <v>/Sprites/Enemy/2020101/</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2020102</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A11,"/")</f>
+        <v>/Sprites/Enemy/2020102/</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2021102</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A12,"/")</f>
+        <v>/Sprites/Enemy/2021102/</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2021103</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A13,"/")</f>
+        <v>/Sprites/Enemy/2021103/</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2021104</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A14,"/")</f>
+        <v>/Sprites/Enemy/2021104/</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>2022105</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Enemy/",A15,"/")</f>
+        <v>/Sprites/Enemy/2022105/</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{D0436920-B6FD-4F34-A394-27EFB751256A}">
+      <formula1>COUNTIF(A:A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -905,11 +5479,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3433CC4-0965-4602-82C6-05F8C3A6D438}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12FF347-D3BE-4A11-A74B-6BA70A8358B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3002EA-EC6A-445C-BFBE-7D2570DDC2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26130" yWindow="6330" windowWidth="19425" windowHeight="11955" firstSheet="2" activeTab="5" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="3480" yWindow="13500" windowWidth="19425" windowHeight="12165" firstSheet="3" activeTab="6" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="TOWER@FIRE" sheetId="9" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="ENEMY@FIRE" sheetId="12" r:id="rId4"/>
     <sheet name="ENEMY@WATER" sheetId="13" r:id="rId5"/>
     <sheet name="ENEMY@NATURE" sheetId="14" r:id="rId6"/>
-    <sheet name="EnumData" sheetId="7" r:id="rId7"/>
-    <sheet name="Round" sheetId="8" r:id="rId8"/>
+    <sheet name="STAT" sheetId="15" r:id="rId7"/>
+    <sheet name="EnumData" sheetId="7" r:id="rId8"/>
+    <sheet name="Round" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="200">
   <si>
     <t>POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,6 +707,134 @@
   </si>
   <si>
     <t>오크병사, Orc Solider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물,Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연,Nature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력,Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도,Attack Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금광,Goldmine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화상,Burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈,Bleed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독,Poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물량,Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도,Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력,HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장확률,Probablity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용,Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도,AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력.Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비시간,Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워,Tower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적,Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반,Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀,Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅,Heroic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설,Legendary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리,Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티샷,Multi Shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스플래시,Splash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 많은 유닛,Strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 적은 유닛,Weak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상성,Element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프가 없는 유닛,Debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞에 있는 유닛,First</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤에 있는 유닛,Last</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1193,7 +1322,7 @@
         <v>91</v>
       </c>
       <c r="R2" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+        <f t="shared" ref="R2:R23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1000000/</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -1241,7 +1370,7 @@
         <v>91</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A3,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000001/</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -1292,7 +1421,7 @@
         <v>88</v>
       </c>
       <c r="R4" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A4,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000002/</v>
       </c>
       <c r="S4" s="1" t="s">
@@ -1331,7 +1460,7 @@
         <v>78</v>
       </c>
       <c r="R5" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A5,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000003/</v>
       </c>
       <c r="S5" s="1" t="s">
@@ -1367,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A6,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001003/</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -1403,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A7,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002003/</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -1451,7 +1580,7 @@
         <v>85</v>
       </c>
       <c r="R8" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A8,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000004/</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -1496,7 +1625,7 @@
         <v>0.3</v>
       </c>
       <c r="R9" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A9,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001004/</v>
       </c>
       <c r="S9" s="1" t="s">
@@ -1541,7 +1670,7 @@
         <v>0.3</v>
       </c>
       <c r="R10" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A10,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002004/</v>
       </c>
       <c r="S10" s="1" t="s">
@@ -1577,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A11,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000005/</v>
       </c>
       <c r="S11" s="1" t="s">
@@ -1613,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A12,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001005/</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -1649,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A13,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002005/</v>
       </c>
       <c r="S13" s="1" t="s">
@@ -1697,7 +1826,7 @@
         <v>78</v>
       </c>
       <c r="R14" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A14,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000006/</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -1745,7 +1874,7 @@
         <v>78</v>
       </c>
       <c r="R15" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A15,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001006/</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -1793,7 +1922,7 @@
         <v>70</v>
       </c>
       <c r="R16" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A16,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002006/</v>
       </c>
       <c r="S16" s="1" t="s">
@@ -1841,7 +1970,7 @@
         <v>70</v>
       </c>
       <c r="R17" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A17,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003006/</v>
       </c>
       <c r="S17" s="1" t="s">
@@ -1889,7 +2018,7 @@
         <v>70</v>
       </c>
       <c r="R18" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A18,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000007/</v>
       </c>
       <c r="S18" s="1" t="s">
@@ -1937,7 +2066,7 @@
         <v>70</v>
       </c>
       <c r="R19" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A19,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001007/</v>
       </c>
       <c r="S19" s="1" t="s">
@@ -1985,7 +2114,7 @@
         <v>70</v>
       </c>
       <c r="R20" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A20,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002007/</v>
       </c>
       <c r="S20" s="1" t="s">
@@ -2033,7 +2162,7 @@
         <v>70</v>
       </c>
       <c r="R21" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A21,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001008/</v>
       </c>
       <c r="S21" s="1" t="s">
@@ -2081,7 +2210,7 @@
         <v>70</v>
       </c>
       <c r="R22" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A22,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002008/</v>
       </c>
       <c r="S22" s="1" t="s">
@@ -2129,7 +2258,7 @@
         <v>70</v>
       </c>
       <c r="R23" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A23,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003008/</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -2290,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+        <f t="shared" ref="R2:R23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1010000/</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -2326,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A3,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011000/</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -2362,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A4,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010001/</v>
       </c>
       <c r="S4" s="1" t="s">
@@ -2407,7 +2536,7 @@
         <v>0.3</v>
       </c>
       <c r="R5" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A5,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011001/</v>
       </c>
       <c r="S5" s="1" t="s">
@@ -2458,7 +2587,7 @@
         <v>78</v>
       </c>
       <c r="R6" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A6,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012001/</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -2497,7 +2626,7 @@
         <v>116</v>
       </c>
       <c r="R7" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A7,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010002/</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -2536,7 +2665,7 @@
         <v>116</v>
       </c>
       <c r="R8" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A8,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011002/</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -2575,7 +2704,7 @@
         <v>116</v>
       </c>
       <c r="R9" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A9,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012002/</v>
       </c>
       <c r="S9" s="1" t="s">
@@ -2623,7 +2752,7 @@
         <v>116</v>
       </c>
       <c r="R10" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A10,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010003/</v>
       </c>
       <c r="S10" s="1" t="s">
@@ -2671,7 +2800,7 @@
         <v>116</v>
       </c>
       <c r="R11" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A11,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011003/</v>
       </c>
       <c r="S11" s="1" t="s">
@@ -2719,7 +2848,7 @@
         <v>116</v>
       </c>
       <c r="R12" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A12,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012003/</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -2758,7 +2887,7 @@
         <v>116</v>
       </c>
       <c r="R13" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A13,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011004/</v>
       </c>
       <c r="S13" s="1" t="s">
@@ -2797,7 +2926,7 @@
         <v>116</v>
       </c>
       <c r="R14" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A14,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012004/</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -2845,7 +2974,7 @@
         <v>116</v>
       </c>
       <c r="R15" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A15,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010005/</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -2893,7 +3022,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A16,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011005/</v>
       </c>
       <c r="S16" s="1" t="s">
@@ -2941,7 +3070,7 @@
         <v>116</v>
       </c>
       <c r="R17" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A17,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012005/</v>
       </c>
       <c r="S17" s="1" t="s">
@@ -2989,7 +3118,7 @@
         <v>119</v>
       </c>
       <c r="R18" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A18,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010006/</v>
       </c>
       <c r="S18" s="1" t="s">
@@ -3037,7 +3166,7 @@
         <v>119</v>
       </c>
       <c r="R19" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A19,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011006/</v>
       </c>
       <c r="S19" s="1" t="s">
@@ -3085,7 +3214,7 @@
         <v>116</v>
       </c>
       <c r="R20" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A20,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012006/</v>
       </c>
       <c r="S20" s="1" t="s">
@@ -3133,7 +3262,7 @@
         <v>116</v>
       </c>
       <c r="R21" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A21,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013006/</v>
       </c>
       <c r="S21" s="1" t="s">
@@ -3184,7 +3313,7 @@
         <v>78</v>
       </c>
       <c r="R22" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A22,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012007/</v>
       </c>
       <c r="S22" s="1" t="s">
@@ -3235,7 +3364,7 @@
         <v>78</v>
       </c>
       <c r="R23" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A23,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013007/</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -3414,7 +3543,7 @@
         <v>135</v>
       </c>
       <c r="R2" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+        <f t="shared" ref="R2:R25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1020000/</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -3462,7 +3591,7 @@
         <v>142</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A3,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021000/</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -3510,7 +3639,7 @@
         <v>147</v>
       </c>
       <c r="R4" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A4,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020001/</v>
       </c>
       <c r="S4" s="1" t="s">
@@ -3555,7 +3684,7 @@
         <v>0.1</v>
       </c>
       <c r="R5" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A5,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021001/</v>
       </c>
       <c r="S5" s="1" t="s">
@@ -3600,7 +3729,7 @@
         <v>0.1</v>
       </c>
       <c r="R6" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A6,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022001/</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -3645,7 +3774,7 @@
         <v>0.3</v>
       </c>
       <c r="R7" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A7,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020002/</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -3690,7 +3819,7 @@
         <v>0.3</v>
       </c>
       <c r="R8" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A8,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021002/</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -3735,7 +3864,7 @@
         <v>0.3</v>
       </c>
       <c r="R9" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A9,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022002/</v>
       </c>
       <c r="S9" s="1" t="s">
@@ -3783,7 +3912,7 @@
         <v>142</v>
       </c>
       <c r="R10" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A10,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020003/</v>
       </c>
       <c r="S10" s="1" t="s">
@@ -3831,7 +3960,7 @@
         <v>142</v>
       </c>
       <c r="R11" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A11,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021003/</v>
       </c>
       <c r="S11" s="1" t="s">
@@ -3879,7 +4008,7 @@
         <v>142</v>
       </c>
       <c r="R12" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A12,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022003/</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -3915,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A13,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020004/</v>
       </c>
       <c r="S13" s="1" t="s">
@@ -3951,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A14,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021004/</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -3987,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A15,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022004/</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -4032,7 +4161,7 @@
         <v>0.3</v>
       </c>
       <c r="R16" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A16,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020005/</v>
       </c>
       <c r="S16" s="1" t="s">
@@ -4077,7 +4206,7 @@
         <v>0.3</v>
       </c>
       <c r="R17" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A17,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021005/</v>
       </c>
       <c r="S17" s="1" t="s">
@@ -4122,7 +4251,7 @@
         <v>0.3</v>
       </c>
       <c r="R18" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A18,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022005/</v>
       </c>
       <c r="S18" s="1" t="s">
@@ -4161,7 +4290,7 @@
         <v>137</v>
       </c>
       <c r="R19" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A19,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020006/</v>
       </c>
       <c r="S19" s="1" t="s">
@@ -4200,7 +4329,7 @@
         <v>137</v>
       </c>
       <c r="R20" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A20,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021006/</v>
       </c>
       <c r="S20" s="1" t="s">
@@ -4239,7 +4368,7 @@
         <v>135</v>
       </c>
       <c r="R21" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A21,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020007/</v>
       </c>
       <c r="S21" s="1" t="s">
@@ -4278,7 +4407,7 @@
         <v>135</v>
       </c>
       <c r="R22" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A22,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022007/</v>
       </c>
       <c r="S22" s="1" t="s">
@@ -4326,7 +4455,7 @@
         <v>134</v>
       </c>
       <c r="R23" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A23,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020008/</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -4371,7 +4500,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="R24" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A24,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021008/</v>
       </c>
       <c r="S24" s="1" t="s">
@@ -4416,7 +4545,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="R25" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A25,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022008/</v>
       </c>
       <c r="S25" s="1" t="s">
@@ -4470,7 +4599,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4732,7 +4861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F511731-D966-487D-B559-FFB18F3F2C14}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
@@ -4806,7 +4935,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A2,"/")</f>
+        <f t="shared" ref="I2:I15" si="0">CONCATENATE("/Sprites/Enemy/",A2,"/")</f>
         <v>/Sprites/Enemy/2020000/</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -4839,7 +4968,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A3,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Enemy/2020001/</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -4872,7 +5001,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A4,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Enemy/2020002/</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -4905,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A5,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Enemy/2021002/</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -4938,7 +5067,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A6,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Enemy/2021003/</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -4971,7 +5100,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A7,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Enemy/2021004/</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -5004,7 +5133,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A8,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Enemy/2022005/</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -5037,7 +5166,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A9,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Enemy/2020100/</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -5070,7 +5199,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A10,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Enemy/2020101/</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -5103,7 +5232,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A11,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Enemy/2020102/</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -5136,7 +5265,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A12,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Enemy/2021102/</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -5169,7 +5298,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A13,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Enemy/2021103/</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -5202,7 +5331,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A14,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Enemy/2021104/</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -5235,7 +5364,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A15,"/")</f>
+        <f t="shared" si="0"/>
         <v>/Sprites/Enemy/2022105/</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -5254,11 +5383,346 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF271AF4-E94B-43D7-A6A9-013F378630A5}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>3000001</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3001000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3001001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3001002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>3002000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>3002001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>3002002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>3002003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>3003000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3003001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3003002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>3004000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3004001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>3004002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>3004003</v>
+      </c>
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>3100000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>3100001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>3100002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>3100003</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>3101000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>3101001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>3101002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>3101003</v>
+      </c>
+      <c r="B31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>3101004</v>
+      </c>
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>3101005</v>
+      </c>
+      <c r="B33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>3200000</v>
+      </c>
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>3200001</v>
+      </c>
+      <c r="B36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>3200002</v>
+      </c>
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>3200003</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>3200004</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>3201000</v>
+      </c>
+      <c r="B41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>3201001</v>
+      </c>
+      <c r="B42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>3201002</v>
+      </c>
+      <c r="B43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>3201003</v>
+      </c>
+      <c r="B44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>3201004</v>
+      </c>
+      <c r="B45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>3201005</v>
+      </c>
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A12" xr:uid="{E6395A8C-F3EC-4321-B06A-5AED695DDED3}">
+      <formula1>COUNTIF(A:A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5479,7 +5943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3433CC4-0965-4602-82C6-05F8C3A6D438}">
   <dimension ref="A1:B7"/>
   <sheetViews>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3002EA-EC6A-445C-BFBE-7D2570DDC2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F681C37D-1C2D-4BC1-B140-342927ADAE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="13500" windowWidth="19425" windowHeight="12165" firstSheet="3" activeTab="6" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-20100" yWindow="5265" windowWidth="18075" windowHeight="14130" firstSheet="3" activeTab="7" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="TOWER@FIRE" sheetId="9" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="ENEMY@WATER" sheetId="13" r:id="rId5"/>
     <sheet name="ENEMY@NATURE" sheetId="14" r:id="rId6"/>
     <sheet name="STAT" sheetId="15" r:id="rId7"/>
-    <sheet name="EnumData" sheetId="7" r:id="rId8"/>
-    <sheet name="Round" sheetId="8" r:id="rId9"/>
+    <sheet name="UI" sheetId="16" r:id="rId8"/>
+    <sheet name="EnumData" sheetId="7" r:id="rId9"/>
+    <sheet name="Round" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="200">
   <si>
     <t>POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2312,6 +2313,86 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3433CC4-0965-4602-82C6-05F8C3A6D438}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A7" xr:uid="{F85E7059-D32B-4D8F-97DE-23444DAF66C9}">
+      <formula1>COUNTIFS($A:$A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3F0F3C-A656-4EC0-A859-21F1263F0A34}">
   <dimension ref="A1:S36"/>
@@ -5386,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF271AF4-E94B-43D7-A6A9-013F378630A5}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5718,6 +5799,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8E4527-3365-487A-B440-8E1995F53AC4}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{41BF5432-82E9-4C52-9DEB-55ECF7CE15FC}">
+      <formula1>COUNTIF(A:A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -5941,84 +6051,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3433CC4-0965-4602-82C6-05F8C3A6D438}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A7" xr:uid="{F85E7059-D32B-4D8F-97DE-23444DAF66C9}">
-      <formula1>COUNTIFS($A:$A,A1)=1</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F681C37D-1C2D-4BC1-B140-342927ADAE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A92DD43-5C40-4BEB-9DFE-E646C8103267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20100" yWindow="5265" windowWidth="18075" windowHeight="14130" firstSheet="3" activeTab="7" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-20100" yWindow="5265" windowWidth="18075" windowHeight="14130" firstSheet="3" activeTab="8" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="TOWER@FIRE" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="215">
   <si>
     <t>POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -836,6 +836,66 @@
   </si>
   <si>
     <t>뒤에 있는 유닛,Last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤,RANDOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyStatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력,HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도,SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치,EXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반,NORMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스,BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네임드,ELITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyGrade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5465,15 +5525,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF271AF4-E94B-43D7-A6A9-013F378630A5}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -5505,292 +5566,348 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3001000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>168</v>
+      <c r="A5" s="3">
+        <v>3001999</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>3001001</v>
+        <v>3001000</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <v>3001001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>3001002</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>3002000</v>
-      </c>
-      <c r="B9" t="s">
-        <v>187</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>3002001</v>
+        <v>3002000</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>3002002</v>
+        <v>3002001</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <v>3002002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>3002003</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>3003000</v>
-      </c>
-      <c r="B14" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>3003001</v>
+        <v>3003000</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <v>3003001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>3003002</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>3004000</v>
-      </c>
-      <c r="B18" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>3004001</v>
+        <v>3004000</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>3004002</v>
+        <v>3004001</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>3004002</v>
+      </c>
+      <c r="B21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>3004003</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>3100000</v>
-      </c>
-      <c r="B23" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>3100001</v>
+        <v>3100000</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>3100002</v>
+        <v>3100001</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
+        <v>3100002</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>3100003</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>3101000</v>
-      </c>
-      <c r="B28" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>3101001</v>
+        <v>3101000</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>3101002</v>
+        <v>3101001</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>3101003</v>
+        <v>3101002</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>3101004</v>
+        <v>3101003</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
+        <v>3101004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>3101005</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>3200000</v>
-      </c>
-      <c r="B35" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>3200001</v>
+        <v>3200000</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>3200002</v>
+        <v>3200001</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>3200003</v>
+        <v>3200002</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
+        <v>3200003</v>
+      </c>
+      <c r="B39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>3200004</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>3201000</v>
-      </c>
-      <c r="B41" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>3201001</v>
+        <v>3201000</v>
       </c>
       <c r="B42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>3201002</v>
+        <v>3201001</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>3201003</v>
+        <v>3201002</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>3201004</v>
+        <v>3201003</v>
       </c>
       <c r="B45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
+        <v>3201004</v>
+      </c>
+      <c r="B46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>3201005</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>3300000</v>
+      </c>
+      <c r="B49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>3300001</v>
+      </c>
+      <c r="B50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>3300002</v>
+      </c>
+      <c r="B51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>3301000</v>
+      </c>
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>3301001</v>
+      </c>
+      <c r="B54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>3301002</v>
+      </c>
+      <c r="B55" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A12" xr:uid="{E6395A8C-F3EC-4321-B06A-5AED695DDED3}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A13" xr:uid="{E6395A8C-F3EC-4321-B06A-5AED695DDED3}">
       <formula1>COUNTIF(A:A,A1)=1</formula1>
     </dataValidation>
   </dataValidations>
@@ -5802,7 +5919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8E4527-3365-487A-B440-8E1995F53AC4}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -5829,10 +5946,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5896,154 +6013,182 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A92DD43-5C40-4BEB-9DFE-E646C8103267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6528E72E-21A6-4521-B69A-8EDAD6B4FCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20100" yWindow="5265" windowWidth="18075" windowHeight="14130" firstSheet="3" activeTab="8" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-20100" yWindow="5265" windowWidth="18075" windowHeight="14130" firstSheet="3" activeTab="3" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="TOWER@FIRE" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="240">
   <si>
     <t>POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -635,10 +635,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다크엘프,Dark Elf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오크,Orc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -896,6 +892,110 @@
   </si>
   <si>
     <t>EnemyGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 오크,Ice Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 오크병사,Ice Orc Solider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 오크도끼전사,Ice Orc Axe Soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정예 아이스 오크도끼전사, Elite Ice Orc Axe Solider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자이언트 아이스 오크, Giant Ice Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 오크샤먼, Shaman Ice Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 다크엘프 검사,Ice Dark Elf Soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 다크엘프 창술사,Ice Dark Elf Spearman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 다크엘프 어쌔신,Ice Dark Elf Assassin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 다크엘프 마법사,Ice Dark Elf Mage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 다크엘프 마검사,Ice Dark Elf Magic Knight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 다크엘프 로드,Ice Dark Elf Lord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 오크,Fire Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 오크병사,Fire Orc Solider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 오크도끼전사,Fire Orc Axe Soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정예 파이어 오크도끼전사, Elite Fire Orc Axe Solider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자이언트 파이어 오크, Giant Fire Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 오크샤먼, Shaman Fire Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 오크 족장, Chief Fire Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 오크 족장, Chief Ice Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 다크엘프 검사,Fire Dark Elf Soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 다크엘프 창술사,Fire Dark Elf Spearman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 다크엘프 어쌔신,Fire Dark Elf Assassin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 다크엘프 마법사,Fire Dark Elf Mage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 다크엘프 마검사,Fire Dark Elf Magic Knight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 다크엘프 로드,Fire Dark Elf Lord</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4736,11 +4836,1063 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75967C55-9BA4-40EE-BBD0-AF03F89CCB6F}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f t="shared" ref="I2:I15" si="0">CONCATENATE("/Sprites/Enemy/",A2,"/")</f>
+        <v>/Sprites/Enemy/2000000/</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2000001/</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2000002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2000002/</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2001002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2001002/</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2001003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2001003/</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2001004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2001004/</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2002005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2002005/</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2000100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2000100/</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2000101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2000101/</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2000102</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2000102/</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2001102</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2001102/</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2001103</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2001103/</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2001104</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2001104/</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>2002105</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2002105/</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{1F15BD78-2C76-416A-AA9B-FA64F5D504AF}">
+      <formula1>COUNTIF(A:A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C28BD20-4060-4017-8FFF-9C9E3C00F1E8}">
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2010000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f t="shared" ref="I2:I15" si="0">CONCATENATE("/Sprites/Enemy/",A2,"/")</f>
+        <v>/Sprites/Enemy/2010000/</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2010001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2010001/</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2010002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2010002/</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2011002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2011002/</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2011003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2011003/</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2011004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2011004/</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2012005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2012005/</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2010100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2010100/</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2010101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2010101/</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2010102</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2010102/</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2011102</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2011102/</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2011103</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2011103/</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2011104</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2011104/</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>2012105</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/2012105/</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{C599AA2A-F464-4210-92BD-79E3075BDA2F}">
+      <formula1>COUNTIF(A:A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F511731-D966-487D-B559-FFB18F3F2C14}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="A2:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4761,286 +5913,22 @@
         <v>111</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>109</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="B2" t="s">
         <v>150</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>50</v>
-      </c>
-      <c r="H2" s="1">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A2,"/")</f>
-        <v>/Sprites/Enemy/2000000/</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2000100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>50</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A3,"/")</f>
-        <v>/Sprites/Enemy/2000100/</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{1F15BD78-2C76-416A-AA9B-FA64F5D504AF}">
-      <formula1>COUNTIF(A:A,A1)=1</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C28BD20-4060-4017-8FFF-9C9E3C00F1E8}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>2010000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>50</v>
-      </c>
-      <c r="H2" s="1">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A2,"/")</f>
-        <v>/Sprites/Enemy/2010000/</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2010100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>50</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Enemy/",A3,"/")</f>
-        <v>/Sprites/Enemy/2010100/</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A1048576 A1:A2" xr:uid="{C599AA2A-F464-4210-92BD-79E3075BDA2F}">
-      <formula1>COUNTIF(A:A,A1)=1</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F511731-D966-487D-B559-FFB18F3F2C14}">
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>95</v>
@@ -5055,7 +5943,7 @@
         <v>2020000</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -5088,7 +5976,7 @@
         <v>2020001</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -5121,7 +6009,7 @@
         <v>2020002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -5154,7 +6042,7 @@
         <v>2021002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -5187,7 +6075,7 @@
         <v>2021003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -5220,7 +6108,7 @@
         <v>2021004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -5253,7 +6141,7 @@
         <v>2022005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -5286,7 +6174,7 @@
         <v>2020100</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -5319,7 +6207,7 @@
         <v>2020101</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -5352,7 +6240,7 @@
         <v>2020102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -5385,7 +6273,7 @@
         <v>2021102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -5418,7 +6306,7 @@
         <v>2021103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -5451,7 +6339,7 @@
         <v>2021104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -5484,7 +6372,7 @@
         <v>2022105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -5550,7 +6438,7 @@
         <v>3000000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5558,7 +6446,7 @@
         <v>3000001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5570,7 +6458,7 @@
         <v>3001999</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5578,7 +6466,7 @@
         <v>3001000</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5586,7 +6474,7 @@
         <v>3001001</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5594,7 +6482,7 @@
         <v>3001002</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5605,7 +6493,7 @@
         <v>3002000</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5613,7 +6501,7 @@
         <v>3002001</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5621,7 +6509,7 @@
         <v>3002002</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5629,7 +6517,7 @@
         <v>3002003</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5637,7 +6525,7 @@
         <v>3003000</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5645,7 +6533,7 @@
         <v>3003001</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -5653,7 +6541,7 @@
         <v>3003002</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -5669,7 +6557,7 @@
         <v>3004001</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -5677,7 +6565,7 @@
         <v>3004002</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5685,7 +6573,7 @@
         <v>3004003</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -5693,7 +6581,7 @@
         <v>3100000</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -5701,7 +6589,7 @@
         <v>3100001</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -5709,7 +6597,7 @@
         <v>3100002</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -5717,7 +6605,7 @@
         <v>3100003</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -5725,7 +6613,7 @@
         <v>3101000</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -5733,7 +6621,7 @@
         <v>3101001</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -5741,7 +6629,7 @@
         <v>3101002</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -5749,7 +6637,7 @@
         <v>3101003</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -5757,7 +6645,7 @@
         <v>3101004</v>
       </c>
       <c r="B33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -5765,7 +6653,7 @@
         <v>3101005</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -5773,7 +6661,7 @@
         <v>3200000</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5781,7 +6669,7 @@
         <v>3200001</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -5789,7 +6677,7 @@
         <v>3200002</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -5797,7 +6685,7 @@
         <v>3200003</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -5805,7 +6693,7 @@
         <v>3200004</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -5813,7 +6701,7 @@
         <v>3201000</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -5821,7 +6709,7 @@
         <v>3201001</v>
       </c>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -5829,7 +6717,7 @@
         <v>3201002</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -5837,7 +6725,7 @@
         <v>3201003</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -5845,7 +6733,7 @@
         <v>3201004</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -5853,7 +6741,7 @@
         <v>3201005</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -5861,7 +6749,7 @@
         <v>3300000</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -5869,7 +6757,7 @@
         <v>3300001</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -5877,7 +6765,7 @@
         <v>3300002</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -5885,7 +6773,7 @@
         <v>3301000</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -5893,7 +6781,7 @@
         <v>3301001</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -5901,7 +6789,7 @@
         <v>3301002</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5948,7 +6836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -6013,16 +6901,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
         <v>211</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>212</v>
-      </c>
-      <c r="D4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -6067,16 +6955,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s">
         <v>201</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>202</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>203</v>
-      </c>
-      <c r="D7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6528E72E-21A6-4521-B69A-8EDAD6B4FCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3A8E76-3863-44A2-AC6E-88E20F2E0127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20100" yWindow="5265" windowWidth="18075" windowHeight="14130" firstSheet="3" activeTab="3" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-20370" yWindow="5655" windowWidth="18075" windowHeight="14130" firstSheet="4" activeTab="7" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="TOWER@FIRE" sheetId="9" r:id="rId1"/>
     <sheet name="TOWER@WATER" sheetId="10" r:id="rId2"/>
     <sheet name="TOWER@NATURE" sheetId="11" r:id="rId3"/>
-    <sheet name="ENEMY@FIRE" sheetId="12" r:id="rId4"/>
-    <sheet name="ENEMY@WATER" sheetId="13" r:id="rId5"/>
-    <sheet name="ENEMY@NATURE" sheetId="14" r:id="rId6"/>
-    <sheet name="STAT" sheetId="15" r:id="rId7"/>
-    <sheet name="UI" sheetId="16" r:id="rId8"/>
-    <sheet name="EnumData" sheetId="7" r:id="rId9"/>
-    <sheet name="Round" sheetId="8" r:id="rId10"/>
+    <sheet name="TOWER@CUSTOM" sheetId="17" r:id="rId4"/>
+    <sheet name="ENEMY@FIRE" sheetId="12" r:id="rId5"/>
+    <sheet name="ENEMY@WATER" sheetId="13" r:id="rId6"/>
+    <sheet name="ENEMY@NATURE" sheetId="14" r:id="rId7"/>
+    <sheet name="ENEMY@CUSTOM" sheetId="18" r:id="rId8"/>
+    <sheet name="STAT" sheetId="15" r:id="rId9"/>
+    <sheet name="UI" sheetId="16" r:id="rId10"/>
+    <sheet name="EnumData" sheetId="7" r:id="rId11"/>
+    <sheet name="Round" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="240">
   <si>
     <t>POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1374,14 +1376,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="12" width="9" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
@@ -2474,6 +2477,289 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8E4527-3365-487A-B440-8E1995F53AC4}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{41BF5432-82E9-4C52-9DEB-55ECF7CE15FC}">
+      <formula1>COUNTIF(A:A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3433CC4-0965-4602-82C6-05F8C3A6D438}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -2557,9 +2843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3F0F3C-A656-4EC0-A859-21F1263F0A34}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T23"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3665,7 +3951,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4835,12 +5121,724 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5381F8-97C8-4316-9E8C-10D9ECA24755}">
+  <dimension ref="A1:S25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="11" width="9" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="18" max="18" width="25" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>135</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f t="shared" ref="R2:R14" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+        <v>/Sprites/Tower/4000000/</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>4000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="1">
+        <v>150</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/4000001/</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>4000002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>147</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/4000002/</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4000003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1">
+        <v>150</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/4000003/</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4010000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="1">
+        <v>150</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/4010000/</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4010001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="1">
+        <v>150</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A7,"/")</f>
+        <v>/Sprites/Tower/4010001/</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4011001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="1">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A8,"/")</f>
+        <v>/Sprites/Tower/4011001/</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>4012001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="1">
+        <v>150</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A9,"/")</f>
+        <v>/Sprites/Tower/4012001/</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>4010002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="1">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10"/>
+      <c r="R10" s="1" t="str">
+        <f t="shared" ref="R10" si="1">CONCATENATE("/Sprites/Tower/",A10,"/")</f>
+        <v>/Sprites/Tower/4010002/</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>4020000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="1">
+        <v>150</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/4020000/</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>4020001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="1">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/4020001/</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>4020002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="1">
+        <v>150</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/4020002/</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>4020005</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="1">
+        <v>150</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/4020005/</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27:A1048576 A1:A25" xr:uid="{AB708ADF-5841-4EF2-8D25-37A7A73C0567}">
+      <formula1>COUNTIFS($A:$A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75967C55-9BA4-40EE-BBD0-AF03F89CCB6F}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5115,7 +6113,7 @@
         <v>/Sprites/Enemy/2002005/</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5360,13 +6358,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C28BD20-4060-4017-8FFF-9C9E3C00F1E8}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5641,7 +6639,7 @@
         <v>/Sprites/Enemy/2012005/</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5886,13 +6884,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F511731-D966-487D-B559-FFB18F3F2C14}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="A2:J15"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6166,7 +7164,7 @@
         <v>/Sprites/Enemy/2022005/</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6411,12 +7409,537 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3772D7-A36A-432F-9AE3-217645637BC6}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5020000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f t="shared" ref="I2:I15" si="0">CONCATENATE("/Sprites/Enemy/",A2,"/")</f>
+        <v>/Sprites/Enemy/5020000/</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>5020001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/5020001/</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5020002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/5020002/</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5021002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/5021002/</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5021003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/5021003/</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5021004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/5021004/</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5022005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/5022005/</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5020100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/5020100/</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>5020101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/5020101/</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>5020102</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/5020102/</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>5021102</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/5021102/</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>5021103</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/5021103/</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>5021104</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/5021104/</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>5022105</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Enemy/5022105/</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{93E42DEC-E91E-4B23-B621-016AD9606CB5}">
+      <formula1>COUNTIF(A:A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF271AF4-E94B-43D7-A6A9-013F378630A5}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6801,287 +8324,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8E4527-3365-487A-B440-8E1995F53AC4}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{41BF5432-82E9-4C52-9DEB-55ECF7CE15FC}">
-      <formula1>COUNTIF(A:A,A1)=1</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3A8E76-3863-44A2-AC6E-88E20F2E0127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20233525-CB68-4DC6-9FA4-EFEB8CD02EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20370" yWindow="5655" windowWidth="18075" windowHeight="14130" firstSheet="4" activeTab="7" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-20370" yWindow="5655" windowWidth="18075" windowHeight="14130" firstSheet="6" activeTab="10" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="TOWER@FIRE" sheetId="9" r:id="rId1"/>
@@ -2509,8 +2509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7413,7 +7413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3772D7-A36A-432F-9AE3-217645637BC6}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20233525-CB68-4DC6-9FA4-EFEB8CD02EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2185FF82-FFD6-4842-97D9-C26BEBD1842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20370" yWindow="5655" windowWidth="18075" windowHeight="14130" firstSheet="6" activeTab="10" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
@@ -46,11 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="240">
-  <si>
-    <t>POWER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="234">
   <si>
     <t>ATTACKSPEED</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,14 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WATER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NATURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAMAGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,19 +136,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ABILITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REWARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterStatType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1394,61 +1370,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1456,7 +1432,7 @@
         <v>1000000</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -1474,23 +1450,23 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="R2" s="1" t="str">
         <f t="shared" ref="R2:R23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1000000/</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1498,7 +1474,7 @@
         <v>1000001</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -1516,7 +1492,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -1531,14 +1507,14 @@
         <v>0.3</v>
       </c>
       <c r="Q3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="R3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000001/</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1546,7 +1522,7 @@
         <v>1000002</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -1564,7 +1540,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -1579,17 +1555,17 @@
         <v>0.3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000002/</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1597,7 +1573,7 @@
         <v>1000003</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -1615,20 +1591,20 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000003/</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1636,7 +1612,7 @@
         <v>1001003</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -1654,7 +1630,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1664,7 +1640,7 @@
         <v>/Sprites/Tower/1001003/</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1672,7 +1648,7 @@
         <v>1002003</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -1690,7 +1666,7 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1700,7 +1676,7 @@
         <v>/Sprites/Tower/1002003/</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1708,7 +1684,7 @@
         <v>1000004</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -1726,7 +1702,7 @@
         <v>0.08</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1741,14 +1717,14 @@
         <v>0.3</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="R8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000004/</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1756,7 +1732,7 @@
         <v>1001004</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -1774,7 +1750,7 @@
         <v>0.08</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1793,7 +1769,7 @@
         <v>/Sprites/Tower/1001004/</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1801,7 +1777,7 @@
         <v>1002004</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -1819,7 +1795,7 @@
         <v>0.08</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1838,7 +1814,7 @@
         <v>/Sprites/Tower/1002004/</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1846,7 +1822,7 @@
         <v>1000005</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -1864,7 +1840,7 @@
         <v>0.15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1874,7 +1850,7 @@
         <v>/Sprites/Tower/1000005/</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1882,7 +1858,7 @@
         <v>1001005</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -1900,7 +1876,7 @@
         <v>0.15</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1910,7 +1886,7 @@
         <v>/Sprites/Tower/1001005/</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1918,7 +1894,7 @@
         <v>1002005</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -1936,7 +1912,7 @@
         <v>0.15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -1946,7 +1922,7 @@
         <v>/Sprites/Tower/1002005/</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1954,7 +1930,7 @@
         <v>1000006</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -1972,7 +1948,7 @@
         <v>0.06</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1987,14 +1963,14 @@
         <v>0.3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000006/</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -2002,7 +1978,7 @@
         <v>1001006</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
@@ -2020,7 +1996,7 @@
         <v>0.06</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
@@ -2035,14 +2011,14 @@
         <v>0.3</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001006/</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -2050,7 +2026,7 @@
         <v>1002006</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1">
         <v>150</v>
@@ -2068,7 +2044,7 @@
         <v>0.06</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -2083,14 +2059,14 @@
         <v>0.3</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002006/</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -2098,7 +2074,7 @@
         <v>1003006</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1">
         <v>150</v>
@@ -2116,7 +2092,7 @@
         <v>0.06</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
@@ -2131,14 +2107,14 @@
         <v>0.3</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003006/</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -2146,7 +2122,7 @@
         <v>1000007</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1">
         <v>150</v>
@@ -2164,7 +2140,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -2179,14 +2155,14 @@
         <v>0.1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000007/</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -2194,7 +2170,7 @@
         <v>1001007</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
@@ -2212,7 +2188,7 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -2227,14 +2203,14 @@
         <v>0.1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001007/</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -2242,7 +2218,7 @@
         <v>1002007</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1">
         <v>150</v>
@@ -2260,7 +2236,7 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -2275,14 +2251,14 @@
         <v>0.1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002007/</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -2290,7 +2266,7 @@
         <v>1001008</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -2308,7 +2284,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -2323,14 +2299,14 @@
         <v>0.3</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001008/</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -2338,7 +2314,7 @@
         <v>1002008</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1">
         <v>150</v>
@@ -2356,7 +2332,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -2371,14 +2347,14 @@
         <v>0.3</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002008/</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -2386,7 +2362,7 @@
         <v>1003008</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1">
         <v>150</v>
@@ -2404,7 +2380,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -2419,14 +2395,14 @@
         <v>0.3</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003008/</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -2488,10 +2464,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2507,10 +2483,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2520,237 +2496,214 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2774,58 +2727,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2860,61 +2813,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -2922,7 +2875,7 @@
         <v>1010000</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -2940,7 +2893,7 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -2950,7 +2903,7 @@
         <v>/Sprites/Tower/1010000/</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -2958,7 +2911,7 @@
         <v>1011000</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -2976,7 +2929,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -2986,7 +2939,7 @@
         <v>/Sprites/Tower/1011000/</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -2994,7 +2947,7 @@
         <v>1010001</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -3012,7 +2965,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -3022,7 +2975,7 @@
         <v>/Sprites/Tower/1010001/</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -3030,7 +2983,7 @@
         <v>1011001</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -3048,7 +3001,7 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -3067,7 +3020,7 @@
         <v>/Sprites/Tower/1011001/</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -3075,7 +3028,7 @@
         <v>1012001</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -3093,7 +3046,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -3111,14 +3064,14 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012001/</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -3126,7 +3079,7 @@
         <v>1010002</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -3144,20 +3097,20 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010002/</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -3165,7 +3118,7 @@
         <v>1011002</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -3183,20 +3136,20 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011002/</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -3204,7 +3157,7 @@
         <v>1012002</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -3222,20 +3175,20 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012002/</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -3243,7 +3196,7 @@
         <v>1010003</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -3261,7 +3214,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -3276,14 +3229,14 @@
         <v>0.3</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010003/</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -3291,7 +3244,7 @@
         <v>1011003</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -3309,7 +3262,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -3324,14 +3277,14 @@
         <v>0.3</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011003/</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -3339,7 +3292,7 @@
         <v>1012003</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -3357,7 +3310,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -3372,14 +3325,14 @@
         <v>0.3</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012003/</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -3387,7 +3340,7 @@
         <v>1011004</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -3405,20 +3358,20 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011004/</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -3426,7 +3379,7 @@
         <v>1012004</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -3444,20 +3397,20 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012004/</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -3465,7 +3418,7 @@
         <v>1010005</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
@@ -3483,7 +3436,7 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -3498,14 +3451,14 @@
         <v>0.3</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010005/</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -3513,7 +3466,7 @@
         <v>1011005</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1">
         <v>150</v>
@@ -3531,7 +3484,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -3546,14 +3499,14 @@
         <v>0.3</v>
       </c>
       <c r="N16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011005/</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -3561,7 +3514,7 @@
         <v>1012005</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C17" s="1">
         <v>150</v>
@@ -3579,7 +3532,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -3594,14 +3547,14 @@
         <v>0.3</v>
       </c>
       <c r="N17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012005/</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -3609,7 +3562,7 @@
         <v>1010006</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1">
         <v>150</v>
@@ -3627,7 +3580,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -3642,14 +3595,14 @@
         <v>0.15</v>
       </c>
       <c r="N18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010006/</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -3657,7 +3610,7 @@
         <v>1011006</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
@@ -3675,7 +3628,7 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -3690,14 +3643,14 @@
         <v>0.15</v>
       </c>
       <c r="N19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011006/</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -3705,7 +3658,7 @@
         <v>1012006</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C20" s="1">
         <v>150</v>
@@ -3723,7 +3676,7 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -3738,14 +3691,14 @@
         <v>0.15</v>
       </c>
       <c r="N20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012006/</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -3753,7 +3706,7 @@
         <v>1013006</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -3771,7 +3724,7 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
@@ -3786,14 +3739,14 @@
         <v>0.15</v>
       </c>
       <c r="N21" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013006/</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -3801,7 +3754,7 @@
         <v>1012007</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1">
         <v>150</v>
@@ -3819,7 +3772,7 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -3837,14 +3790,14 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012007/</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -3852,7 +3805,7 @@
         <v>1013007</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1">
         <v>150</v>
@@ -3870,7 +3823,7 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -3888,14 +3841,14 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013007/</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -3969,61 +3922,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -4031,7 +3984,7 @@
         <v>1020000</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -4049,7 +4002,7 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -4064,17 +4017,17 @@
         <v>0.3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="Q2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R2" s="1" t="str">
         <f t="shared" ref="R2:R25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1020000/</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -4082,7 +4035,7 @@
         <v>1021000</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -4100,7 +4053,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -4115,14 +4068,14 @@
         <v>0.3</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="R3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021000/</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -4130,7 +4083,7 @@
         <v>1020001</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -4148,7 +4101,7 @@
         <v>0.05</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
@@ -4163,14 +4116,14 @@
         <v>0.1</v>
       </c>
       <c r="Q4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="R4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020001/</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -4178,7 +4131,7 @@
         <v>1021001</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -4196,7 +4149,7 @@
         <v>0.05</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -4215,7 +4168,7 @@
         <v>/Sprites/Tower/1021001/</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -4223,7 +4176,7 @@
         <v>1022001</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -4241,7 +4194,7 @@
         <v>0.05</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -4260,7 +4213,7 @@
         <v>/Sprites/Tower/1022001/</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -4268,7 +4221,7 @@
         <v>1020002</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -4286,7 +4239,7 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -4305,7 +4258,7 @@
         <v>/Sprites/Tower/1020002/</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -4313,7 +4266,7 @@
         <v>1021002</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -4331,7 +4284,7 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -4350,7 +4303,7 @@
         <v>/Sprites/Tower/1021002/</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -4358,7 +4311,7 @@
         <v>1022002</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -4376,7 +4329,7 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -4395,7 +4348,7 @@
         <v>/Sprites/Tower/1022002/</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -4403,7 +4356,7 @@
         <v>1020003</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -4421,7 +4374,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -4436,14 +4389,14 @@
         <v>0.3</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="R10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020003/</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -4451,7 +4404,7 @@
         <v>1021003</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -4469,7 +4422,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -4484,14 +4437,14 @@
         <v>0.3</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="R11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021003/</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -4499,7 +4452,7 @@
         <v>1022003</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -4517,7 +4470,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -4532,14 +4485,14 @@
         <v>0.3</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="R12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022003/</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -4547,7 +4500,7 @@
         <v>1020004</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -4565,7 +4518,7 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -4575,7 +4528,7 @@
         <v>/Sprites/Tower/1020004/</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -4583,7 +4536,7 @@
         <v>1021004</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -4601,7 +4554,7 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -4611,7 +4564,7 @@
         <v>/Sprites/Tower/1021004/</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -4619,7 +4572,7 @@
         <v>1022004</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
@@ -4637,7 +4590,7 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -4647,7 +4600,7 @@
         <v>/Sprites/Tower/1022004/</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -4655,7 +4608,7 @@
         <v>1020005</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C16" s="1">
         <v>150</v>
@@ -4673,7 +4626,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -4692,7 +4645,7 @@
         <v>/Sprites/Tower/1020005/</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -4700,7 +4653,7 @@
         <v>1021005</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1">
         <v>150</v>
@@ -4718,7 +4671,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -4737,7 +4690,7 @@
         <v>/Sprites/Tower/1021005/</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -4745,7 +4698,7 @@
         <v>1022005</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C18" s="1">
         <v>150</v>
@@ -4763,7 +4716,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -4782,7 +4735,7 @@
         <v>/Sprites/Tower/1022005/</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -4790,7 +4743,7 @@
         <v>1020006</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
@@ -4808,20 +4761,20 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020006/</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -4829,7 +4782,7 @@
         <v>1021006</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C20" s="1">
         <v>150</v>
@@ -4847,20 +4800,20 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021006/</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -4868,7 +4821,7 @@
         <v>1020007</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -4886,20 +4839,20 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020007/</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -4907,7 +4860,7 @@
         <v>1022007</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1">
         <v>150</v>
@@ -4925,20 +4878,20 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022007/</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -4946,7 +4899,7 @@
         <v>1020008</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C23" s="1">
         <v>150</v>
@@ -4964,7 +4917,7 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I23" s="1">
         <v>2</v>
@@ -4979,14 +4932,14 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="Q23" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="R23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020008/</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -4994,7 +4947,7 @@
         <v>1021008</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C24" s="1">
         <v>150</v>
@@ -5012,7 +4965,7 @@
         <v>0.1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
@@ -5031,7 +4984,7 @@
         <v>/Sprites/Tower/1021008/</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -5039,7 +4992,7 @@
         <v>1022008</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C25" s="1">
         <v>150</v>
@@ -5057,7 +5010,7 @@
         <v>0.1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
@@ -5076,7 +5029,7 @@
         <v>/Sprites/Tower/1022008/</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -5144,61 +5097,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -5206,7 +5159,7 @@
         <v>4000000</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -5224,7 +5177,7 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -5239,17 +5192,17 @@
         <v>0.3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="Q2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R2" s="1" t="str">
         <f t="shared" ref="R2:R14" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/4000000/</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -5257,7 +5210,7 @@
         <v>4000001</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -5275,7 +5228,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -5290,14 +5243,14 @@
         <v>0.3</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="R3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/4000001/</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -5305,7 +5258,7 @@
         <v>4000002</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -5323,7 +5276,7 @@
         <v>0.05</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
@@ -5338,14 +5291,14 @@
         <v>0.1</v>
       </c>
       <c r="Q4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="R4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/4000002/</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -5353,7 +5306,7 @@
         <v>4000003</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -5371,7 +5324,7 @@
         <v>0.05</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -5390,7 +5343,7 @@
         <v>/Sprites/Tower/4000003/</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -5398,7 +5351,7 @@
         <v>4010000</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -5416,7 +5369,7 @@
         <v>0.05</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -5435,7 +5388,7 @@
         <v>/Sprites/Tower/4010000/</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -5443,7 +5396,7 @@
         <v>4010001</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -5461,7 +5414,7 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -5480,7 +5433,7 @@
         <v>/Sprites/Tower/4010001/</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -5488,7 +5441,7 @@
         <v>4011001</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -5506,7 +5459,7 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -5525,7 +5478,7 @@
         <v>/Sprites/Tower/4011001/</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -5533,7 +5486,7 @@
         <v>4012001</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -5551,7 +5504,7 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -5566,14 +5519,14 @@
         <v>0.3</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="R9" s="1" t="str">
         <f>CONCATENATE("/Sprites/Tower/",A9,"/")</f>
         <v>/Sprites/Tower/4012001/</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -5581,7 +5534,7 @@
         <v>4010002</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -5599,14 +5552,14 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O10"/>
       <c r="R10" s="1" t="str">
@@ -5614,7 +5567,7 @@
         <v>/Sprites/Tower/4010002/</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -5622,7 +5575,7 @@
         <v>4020000</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -5640,7 +5593,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -5655,14 +5608,14 @@
         <v>0.3</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="R11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/4020000/</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -5670,7 +5623,7 @@
         <v>4020001</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -5688,7 +5641,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -5698,7 +5651,7 @@
         <v>/Sprites/Tower/4020001/</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -5706,7 +5659,7 @@
         <v>4020002</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -5724,7 +5677,7 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -5743,7 +5696,7 @@
         <v>/Sprites/Tower/4020002/</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -5751,7 +5704,7 @@
         <v>4020005</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -5769,7 +5722,7 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -5788,7 +5741,7 @@
         <v>/Sprites/Tower/4020005/</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -5854,34 +5807,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -5890,7 +5843,7 @@
         <v>2000000</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -5915,7 +5868,7 @@
         <v>/Sprites/Enemy/2000000/</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5923,7 +5876,7 @@
         <v>2000001</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -5948,7 +5901,7 @@
         <v>/Sprites/Enemy/2000001/</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5956,7 +5909,7 @@
         <v>2000002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -5981,7 +5934,7 @@
         <v>/Sprites/Enemy/2000002/</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5989,7 +5942,7 @@
         <v>2001002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -6014,7 +5967,7 @@
         <v>/Sprites/Enemy/2001002/</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6022,7 +5975,7 @@
         <v>2001003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -6047,7 +6000,7 @@
         <v>/Sprites/Enemy/2001003/</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6055,7 +6008,7 @@
         <v>2001004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -6080,7 +6033,7 @@
         <v>/Sprites/Enemy/2001004/</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6088,7 +6041,7 @@
         <v>2002005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -6113,7 +6066,7 @@
         <v>/Sprites/Enemy/2002005/</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6121,7 +6074,7 @@
         <v>2000100</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -6146,7 +6099,7 @@
         <v>/Sprites/Enemy/2000100/</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -6154,7 +6107,7 @@
         <v>2000101</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -6179,7 +6132,7 @@
         <v>/Sprites/Enemy/2000101/</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -6187,7 +6140,7 @@
         <v>2000102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -6212,7 +6165,7 @@
         <v>/Sprites/Enemy/2000102/</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -6220,7 +6173,7 @@
         <v>2001102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -6245,7 +6198,7 @@
         <v>/Sprites/Enemy/2001102/</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -6253,7 +6206,7 @@
         <v>2001103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -6278,7 +6231,7 @@
         <v>/Sprites/Enemy/2001103/</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -6286,7 +6239,7 @@
         <v>2001104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -6311,7 +6264,7 @@
         <v>/Sprites/Enemy/2001104/</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -6319,7 +6272,7 @@
         <v>2002105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -6344,7 +6297,7 @@
         <v>/Sprites/Enemy/2002105/</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -6380,34 +6333,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -6416,7 +6369,7 @@
         <v>2010000</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -6441,7 +6394,7 @@
         <v>/Sprites/Enemy/2010000/</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6449,7 +6402,7 @@
         <v>2010001</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -6474,7 +6427,7 @@
         <v>/Sprites/Enemy/2010001/</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6482,7 +6435,7 @@
         <v>2010002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -6507,7 +6460,7 @@
         <v>/Sprites/Enemy/2010002/</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6515,7 +6468,7 @@
         <v>2011002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -6540,7 +6493,7 @@
         <v>/Sprites/Enemy/2011002/</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6548,7 +6501,7 @@
         <v>2011003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -6573,7 +6526,7 @@
         <v>/Sprites/Enemy/2011003/</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6581,7 +6534,7 @@
         <v>2011004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -6606,7 +6559,7 @@
         <v>/Sprites/Enemy/2011004/</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6614,7 +6567,7 @@
         <v>2012005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -6639,7 +6592,7 @@
         <v>/Sprites/Enemy/2012005/</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6647,7 +6600,7 @@
         <v>2010100</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -6672,7 +6625,7 @@
         <v>/Sprites/Enemy/2010100/</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -6680,7 +6633,7 @@
         <v>2010101</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -6705,7 +6658,7 @@
         <v>/Sprites/Enemy/2010101/</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -6713,7 +6666,7 @@
         <v>2010102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -6738,7 +6691,7 @@
         <v>/Sprites/Enemy/2010102/</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -6746,7 +6699,7 @@
         <v>2011102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -6771,7 +6724,7 @@
         <v>/Sprites/Enemy/2011102/</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -6779,7 +6732,7 @@
         <v>2011103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -6804,7 +6757,7 @@
         <v>/Sprites/Enemy/2011103/</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -6812,7 +6765,7 @@
         <v>2011104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -6837,7 +6790,7 @@
         <v>/Sprites/Enemy/2011104/</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -6845,7 +6798,7 @@
         <v>2012105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -6870,7 +6823,7 @@
         <v>/Sprites/Enemy/2012105/</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -6905,34 +6858,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -6941,7 +6894,7 @@
         <v>2020000</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -6966,7 +6919,7 @@
         <v>/Sprites/Enemy/2020000/</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6974,7 +6927,7 @@
         <v>2020001</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -6999,7 +6952,7 @@
         <v>/Sprites/Enemy/2020001/</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -7007,7 +6960,7 @@
         <v>2020002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -7032,7 +6985,7 @@
         <v>/Sprites/Enemy/2020002/</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -7040,7 +6993,7 @@
         <v>2021002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -7065,7 +7018,7 @@
         <v>/Sprites/Enemy/2021002/</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7073,7 +7026,7 @@
         <v>2021003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -7098,7 +7051,7 @@
         <v>/Sprites/Enemy/2021003/</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7106,7 +7059,7 @@
         <v>2021004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -7131,7 +7084,7 @@
         <v>/Sprites/Enemy/2021004/</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7139,7 +7092,7 @@
         <v>2022005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -7164,7 +7117,7 @@
         <v>/Sprites/Enemy/2022005/</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -7172,7 +7125,7 @@
         <v>2020100</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -7197,7 +7150,7 @@
         <v>/Sprites/Enemy/2020100/</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -7205,7 +7158,7 @@
         <v>2020101</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -7230,7 +7183,7 @@
         <v>/Sprites/Enemy/2020101/</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -7238,7 +7191,7 @@
         <v>2020102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -7263,7 +7216,7 @@
         <v>/Sprites/Enemy/2020102/</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -7271,7 +7224,7 @@
         <v>2021102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -7296,7 +7249,7 @@
         <v>/Sprites/Enemy/2021102/</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -7304,7 +7257,7 @@
         <v>2021103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -7329,7 +7282,7 @@
         <v>/Sprites/Enemy/2021103/</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -7337,7 +7290,7 @@
         <v>2021104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -7362,7 +7315,7 @@
         <v>/Sprites/Enemy/2021104/</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -7370,7 +7323,7 @@
         <v>2022105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -7395,7 +7348,7 @@
         <v>/Sprites/Enemy/2022105/</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -7430,34 +7383,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -7466,7 +7419,7 @@
         <v>5020000</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -7491,7 +7444,7 @@
         <v>/Sprites/Enemy/5020000/</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -7499,7 +7452,7 @@
         <v>5020001</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -7524,7 +7477,7 @@
         <v>/Sprites/Enemy/5020001/</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -7532,7 +7485,7 @@
         <v>5020002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -7557,7 +7510,7 @@
         <v>/Sprites/Enemy/5020002/</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -7565,7 +7518,7 @@
         <v>5021002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -7590,7 +7543,7 @@
         <v>/Sprites/Enemy/5021002/</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7598,7 +7551,7 @@
         <v>5021003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -7623,7 +7576,7 @@
         <v>/Sprites/Enemy/5021003/</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7631,7 +7584,7 @@
         <v>5021004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -7656,7 +7609,7 @@
         <v>/Sprites/Enemy/5021004/</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7664,7 +7617,7 @@
         <v>5022005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -7689,7 +7642,7 @@
         <v>/Sprites/Enemy/5022005/</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -7697,7 +7650,7 @@
         <v>5020100</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -7722,7 +7675,7 @@
         <v>/Sprites/Enemy/5020100/</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -7730,7 +7683,7 @@
         <v>5020101</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -7755,7 +7708,7 @@
         <v>/Sprites/Enemy/5020101/</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -7763,7 +7716,7 @@
         <v>5020102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -7788,7 +7741,7 @@
         <v>/Sprites/Enemy/5020102/</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -7796,7 +7749,7 @@
         <v>5021102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -7821,7 +7774,7 @@
         <v>/Sprites/Enemy/5021102/</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -7829,7 +7782,7 @@
         <v>5021103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -7854,7 +7807,7 @@
         <v>/Sprites/Enemy/5021103/</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -7862,7 +7815,7 @@
         <v>5021104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -7887,7 +7840,7 @@
         <v>/Sprites/Enemy/5021104/</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -7895,7 +7848,7 @@
         <v>5022105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -7920,7 +7873,7 @@
         <v>/Sprites/Enemy/5022105/</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -7950,10 +7903,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7961,7 +7914,7 @@
         <v>3000000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7969,7 +7922,7 @@
         <v>3000001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7981,7 +7934,7 @@
         <v>3001999</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7989,7 +7942,7 @@
         <v>3001000</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7997,7 +7950,7 @@
         <v>3001001</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8005,7 +7958,7 @@
         <v>3001002</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8016,7 +7969,7 @@
         <v>3002000</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -8024,7 +7977,7 @@
         <v>3002001</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -8032,7 +7985,7 @@
         <v>3002002</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -8040,7 +7993,7 @@
         <v>3002003</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8048,7 +8001,7 @@
         <v>3003000</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -8056,7 +8009,7 @@
         <v>3003001</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8064,7 +8017,7 @@
         <v>3003002</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -8072,7 +8025,7 @@
         <v>3004000</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -8080,7 +8033,7 @@
         <v>3004001</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -8088,7 +8041,7 @@
         <v>3004002</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -8096,7 +8049,7 @@
         <v>3004003</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -8104,7 +8057,7 @@
         <v>3100000</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -8112,7 +8065,7 @@
         <v>3100001</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -8120,7 +8073,7 @@
         <v>3100002</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -8128,7 +8081,7 @@
         <v>3100003</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -8136,7 +8089,7 @@
         <v>3101000</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -8144,7 +8097,7 @@
         <v>3101001</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -8152,7 +8105,7 @@
         <v>3101002</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -8160,7 +8113,7 @@
         <v>3101003</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -8168,7 +8121,7 @@
         <v>3101004</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -8176,7 +8129,7 @@
         <v>3101005</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -8184,7 +8137,7 @@
         <v>3200000</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -8192,7 +8145,7 @@
         <v>3200001</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -8200,7 +8153,7 @@
         <v>3200002</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -8208,7 +8161,7 @@
         <v>3200003</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -8216,7 +8169,7 @@
         <v>3200004</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -8224,7 +8177,7 @@
         <v>3201000</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -8232,7 +8185,7 @@
         <v>3201001</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -8240,7 +8193,7 @@
         <v>3201002</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -8248,7 +8201,7 @@
         <v>3201003</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -8256,7 +8209,7 @@
         <v>3201004</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -8264,7 +8217,7 @@
         <v>3201005</v>
       </c>
       <c r="B47" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -8272,7 +8225,7 @@
         <v>3300000</v>
       </c>
       <c r="B49" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -8280,7 +8233,7 @@
         <v>3300001</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -8288,7 +8241,7 @@
         <v>3300002</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -8296,7 +8249,7 @@
         <v>3301000</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -8304,7 +8257,7 @@
         <v>3301001</v>
       </c>
       <c r="B54" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -8312,7 +8265,7 @@
         <v>3301002</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2185FF82-FFD6-4842-97D9-C26BEBD1842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B612D939-7CB9-4217-BE5E-9F951287B54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20370" yWindow="5655" windowWidth="18075" windowHeight="14130" firstSheet="6" activeTab="10" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-21285" yWindow="5505" windowWidth="18075" windowHeight="14130" firstSheet="6" activeTab="8" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="TOWER@FIRE" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="246">
   <si>
     <t>ATTACKSPEED</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력.Damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>준비시간,Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -974,6 +970,58 @@
   </si>
   <si>
     <t>파이어 다크엘프 로드,Fire Dark Elf Lord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라제라,Razera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이델리아,Idelia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자코나,Zakona</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적들의 체력이 50% 증가합니다.,Increase enemy's HP by 50%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적들의 이동속도가 50% 증가합니다.,Increase enemy's speed by 50%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나오는 적들의 수가 50% 증가합니다.,Increase enemy's amount by 50%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라운드 준비시간이 50% 감소합니다.,Decrease round preparation time by 50%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스트가 50% 증가합니다.,Increase cost by 50%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위 유닛 등장 확률이 50% 감소합니다.,Decrease probablity of strong tower by 50%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이델리아 캐릭 특성 설명,Idelia Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자코나 캐릭 특성 설명,Zakona Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라제라 캐릭 특성 설명,Razera Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2454,20 +2502,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8E4527-3365-487A-B440-8E1995F53AC4}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2485,7 +2536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2547,16 +2598,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
         <v>204</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>205</v>
-      </c>
-      <c r="D4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2601,16 +2652,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
         <v>194</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>195</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>196</v>
-      </c>
-      <c r="D7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -5843,7 +5894,7 @@
         <v>2000000</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -5876,7 +5927,7 @@
         <v>2000001</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -5909,7 +5960,7 @@
         <v>2000002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -5942,7 +5993,7 @@
         <v>2001002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -5975,7 +6026,7 @@
         <v>2001003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -6008,7 +6059,7 @@
         <v>2001004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -6041,7 +6092,7 @@
         <v>2002005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -6074,7 +6125,7 @@
         <v>2000100</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -6107,7 +6158,7 @@
         <v>2000101</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -6140,7 +6191,7 @@
         <v>2000102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -6173,7 +6224,7 @@
         <v>2001102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -6206,7 +6257,7 @@
         <v>2001103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -6239,7 +6290,7 @@
         <v>2001104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -6272,7 +6323,7 @@
         <v>2002105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -6369,7 +6420,7 @@
         <v>2010000</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -6402,7 +6453,7 @@
         <v>2010001</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -6435,7 +6486,7 @@
         <v>2010002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -6468,7 +6519,7 @@
         <v>2011002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -6501,7 +6552,7 @@
         <v>2011003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -6534,7 +6585,7 @@
         <v>2011004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -6567,7 +6618,7 @@
         <v>2012005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -6600,7 +6651,7 @@
         <v>2010100</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -6633,7 +6684,7 @@
         <v>2010101</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -6666,7 +6717,7 @@
         <v>2010102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -6699,7 +6750,7 @@
         <v>2011102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -6732,7 +6783,7 @@
         <v>2011103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -6765,7 +6816,7 @@
         <v>2011104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -6798,7 +6849,7 @@
         <v>2012105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -7889,10 +7940,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF271AF4-E94B-43D7-A6A9-013F378630A5}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7901,43 +7952,46 @@
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>3000000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>3000001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3001999</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3001000</v>
       </c>
@@ -7945,7 +7999,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3001001</v>
       </c>
@@ -7953,7 +8007,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3001002</v>
       </c>
@@ -7961,42 +8015,42 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3002000</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3002001</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3002002</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3002003</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3003000</v>
       </c>
@@ -8004,7 +8058,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3003001</v>
       </c>
@@ -8012,7 +8066,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3003002</v>
       </c>
@@ -8020,7 +8074,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>3004000</v>
       </c>
@@ -8028,7 +8082,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3004001</v>
       </c>
@@ -8036,7 +8090,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3004002</v>
       </c>
@@ -8044,7 +8098,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3004003</v>
       </c>
@@ -8052,177 +8106,204 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3100000</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="C24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3100001</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="C25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3100002</v>
       </c>
       <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>3101000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>3101001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>3101002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>3101003</v>
+      </c>
+      <c r="B31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>3101004</v>
+      </c>
+      <c r="B32" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>3100003</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>3101005</v>
+      </c>
+      <c r="B33" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>3101000</v>
-      </c>
-      <c r="B29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>3101001</v>
-      </c>
-      <c r="B30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>3101002</v>
-      </c>
-      <c r="B31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>3101003</v>
-      </c>
-      <c r="B32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>3101004</v>
-      </c>
-      <c r="B33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>3101005</v>
-      </c>
-      <c r="B34" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>3200000</v>
+      </c>
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>3200000</v>
+        <v>3200001</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>3200001</v>
+        <v>3200002</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>3200002</v>
+        <v>3200003</v>
       </c>
       <c r="B38" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>3200003</v>
+        <v>3200004</v>
       </c>
       <c r="B39" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>3200004</v>
-      </c>
-      <c r="B40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>3201000</v>
+      </c>
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>3201000</v>
+        <v>3201001</v>
       </c>
       <c r="B42" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>3201001</v>
+        <v>3201002</v>
       </c>
       <c r="B43" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>3201002</v>
+        <v>3201003</v>
       </c>
       <c r="B44" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>3201003</v>
+        <v>3201004</v>
       </c>
       <c r="B45" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>3201004</v>
+        <v>3201005</v>
       </c>
       <c r="B46" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>3201005</v>
-      </c>
-      <c r="B47" t="s">
-        <v>190</v>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>3300000</v>
+      </c>
+      <c r="B48" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>3300000</v>
+        <v>3300001</v>
       </c>
       <c r="B49" t="s">
         <v>198</v>
@@ -8230,42 +8311,34 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>3300001</v>
+        <v>3300002</v>
       </c>
       <c r="B50" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>3300002</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>3301000</v>
+      </c>
+      <c r="B52" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>3301000</v>
+        <v>3301001</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>3301001</v>
+        <v>3301002</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>3301002</v>
-      </c>
-      <c r="B55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,23 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B612D939-7CB9-4217-BE5E-9F951287B54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76696083-E0DD-4586-A806-B6518C940550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21285" yWindow="5505" windowWidth="18075" windowHeight="14130" firstSheet="6" activeTab="8" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-27600" yWindow="5355" windowWidth="18075" windowHeight="14130" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="TOWER@FIRE" sheetId="9" r:id="rId1"/>
     <sheet name="TOWER@WATER" sheetId="10" r:id="rId2"/>
     <sheet name="TOWER@NATURE" sheetId="11" r:id="rId3"/>
-    <sheet name="TOWER@CUSTOM" sheetId="17" r:id="rId4"/>
-    <sheet name="ENEMY@FIRE" sheetId="12" r:id="rId5"/>
-    <sheet name="ENEMY@WATER" sheetId="13" r:id="rId6"/>
-    <sheet name="ENEMY@NATURE" sheetId="14" r:id="rId7"/>
-    <sheet name="ENEMY@CUSTOM" sheetId="18" r:id="rId8"/>
-    <sheet name="STAT" sheetId="15" r:id="rId9"/>
-    <sheet name="UI" sheetId="16" r:id="rId10"/>
-    <sheet name="EnumData" sheetId="7" r:id="rId11"/>
-    <sheet name="Round" sheetId="8" r:id="rId12"/>
+    <sheet name="ENEMY@FIRE" sheetId="12" r:id="rId4"/>
+    <sheet name="ENEMY@WATER" sheetId="13" r:id="rId5"/>
+    <sheet name="ENEMY@NATURE" sheetId="14" r:id="rId6"/>
+    <sheet name="STAT" sheetId="15" r:id="rId7"/>
+    <sheet name="UI" sheetId="16" r:id="rId8"/>
+    <sheet name="EnumData" sheetId="7" r:id="rId9"/>
+    <sheet name="Round" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="244">
   <si>
     <t>ATTACKSPEED</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,18 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GOLDMINE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MULTISHOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPLASH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEBUFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,38 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BuffType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATKSPD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DebuffType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POISON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2000100,2010100,2020100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,10 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.2;</t>
   </si>
   <si>
@@ -373,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,1.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화염병,Molotov</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,10 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,0.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>돌팔매,Sling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,14 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>debuffs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -555,22 +489,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0.4;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요정,Fairy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>바드,Bard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,10 +527,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다트,Dart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1022,6 +940,78 @@
   </si>
   <si>
     <t>라제라 캐릭 특성 설명,Razera Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,0.4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTISHOT=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPLASH=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLDMINE=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMG=101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATKSPD=102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BURN=201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLOW=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POISON=202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLEED=203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1.5;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1398,9 +1388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F370FB-69E7-436B-99AD-BE543F2F51A7}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B5"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1412,75 +1402,70 @@
     <col min="13" max="13" width="9" style="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="18" max="18" width="25" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="16" max="16" width="25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1000000</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -1498,31 +1483,31 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R2" s="1" t="str">
-        <f t="shared" ref="R2:R23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>231</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <f t="shared" ref="P2:P23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1000000/</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1000001</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -1540,7 +1525,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -1554,23 +1539,23 @@
       <c r="L3" s="1">
         <v>0.3</v>
       </c>
-      <c r="Q3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" s="1" t="str">
+      <c r="O3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000001/</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000002</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -1588,7 +1573,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -1603,25 +1588,25 @@
         <v>0.3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" s="1" t="str">
+        <v>243</v>
+      </c>
+      <c r="P4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000002/</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1000003</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -1639,28 +1624,28 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="P5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000003/</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1001003</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -1678,25 +1663,25 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="R6" s="1" t="str">
+      <c r="P6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001003/</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1002003</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -1714,25 +1699,25 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="R7" s="1" t="str">
+      <c r="P7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002003/</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1000004</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -1750,7 +1735,7 @@
         <v>0.08</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1765,22 +1750,22 @@
         <v>0.3</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" s="1" t="str">
+        <v>242</v>
+      </c>
+      <c r="P8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000004/</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1001004</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -1798,7 +1783,7 @@
         <v>0.08</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1812,20 +1797,20 @@
       <c r="L9" s="1">
         <v>0.3</v>
       </c>
-      <c r="R9" s="1" t="str">
+      <c r="P9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001004/</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1002004</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -1843,7 +1828,7 @@
         <v>0.08</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1857,20 +1842,20 @@
       <c r="L10" s="1">
         <v>0.3</v>
       </c>
-      <c r="R10" s="1" t="str">
+      <c r="P10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002004/</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1000005</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -1888,25 +1873,25 @@
         <v>0.15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="R11" s="1" t="str">
+      <c r="P11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000005/</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1001005</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -1924,25 +1909,25 @@
         <v>0.15</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="R12" s="1" t="str">
+      <c r="P12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001005/</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1002005</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -1960,25 +1945,25 @@
         <v>0.15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="R13" s="1" t="str">
+      <c r="P13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002005/</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1000006</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -1996,7 +1981,7 @@
         <v>0.06</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -2011,22 +1996,22 @@
         <v>0.3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R14" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000006/</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1001006</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
@@ -2044,7 +2029,7 @@
         <v>0.06</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
@@ -2059,22 +2044,22 @@
         <v>0.3</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R15" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001006/</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1002006</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1">
         <v>150</v>
@@ -2092,7 +2077,7 @@
         <v>0.06</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -2107,22 +2092,22 @@
         <v>0.3</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R16" s="1" t="str">
+        <v>53</v>
+      </c>
+      <c r="P16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002006/</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1003006</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1">
         <v>150</v>
@@ -2140,7 +2125,7 @@
         <v>0.06</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
@@ -2155,22 +2140,22 @@
         <v>0.3</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R17" s="1" t="str">
+        <v>53</v>
+      </c>
+      <c r="P17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003006/</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1000007</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1">
         <v>150</v>
@@ -2188,7 +2173,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -2203,22 +2188,22 @@
         <v>0.1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R18" s="1" t="str">
+        <v>53</v>
+      </c>
+      <c r="P18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000007/</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1001007</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
@@ -2236,7 +2221,7 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -2251,22 +2236,22 @@
         <v>0.1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R19" s="1" t="str">
+        <v>53</v>
+      </c>
+      <c r="P19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001007/</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1002007</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1">
         <v>150</v>
@@ -2284,7 +2269,7 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -2299,22 +2284,22 @@
         <v>0.1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R20" s="1" t="str">
+        <v>53</v>
+      </c>
+      <c r="P20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002007/</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1001008</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -2332,7 +2317,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -2347,22 +2332,22 @@
         <v>0.3</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R21" s="1" t="str">
+        <v>53</v>
+      </c>
+      <c r="P21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001008/</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1002008</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1">
         <v>150</v>
@@ -2380,7 +2365,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -2395,22 +2380,22 @@
         <v>0.3</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R22" s="1" t="str">
+        <v>53</v>
+      </c>
+      <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002008/</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1003008</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1">
         <v>150</v>
@@ -2428,7 +2413,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -2443,38 +2428,38 @@
         <v>0.3</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R23" s="1" t="str">
+        <v>53</v>
+      </c>
+      <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003008/</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -2501,269 +2486,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8E4527-3365-487A-B440-8E1995F53AC4}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{41BF5432-82E9-4C52-9DEB-55ECF7CE15FC}">
-      <formula1>COUNTIF(A:A,A1)=1</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3433CC4-0965-4602-82C6-05F8C3A6D438}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -2778,58 +2500,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2571,7 @@
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:S7"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2858,75 +2580,70 @@
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="18" max="18" width="25" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="16" max="16" width="25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1010000</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -2944,25 +2661,25 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="R2" s="1" t="str">
-        <f t="shared" ref="R2:R23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+      <c r="P2" s="1" t="str">
+        <f t="shared" ref="P2:P23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1010000/</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1011000</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -2980,25 +2697,25 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="R3" s="1" t="str">
+      <c r="P3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011000/</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1010001</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -3016,25 +2733,25 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="R4" s="1" t="str">
+      <c r="P4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010001/</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1011001</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -3052,7 +2769,7 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -3066,20 +2783,20 @@
       <c r="L5" s="1">
         <v>0.3</v>
       </c>
-      <c r="R5" s="1" t="str">
+      <c r="P5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011001/</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1012001</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -3097,7 +2814,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -3115,22 +2832,22 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R6" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012001/</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1010002</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -3148,28 +2865,28 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>110</v>
-      </c>
-      <c r="R7" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="P7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010002/</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1011002</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -3187,28 +2904,28 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
-      </c>
-      <c r="R8" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="P8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011002/</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1012002</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -3226,28 +2943,28 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="P9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012002/</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1010003</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -3265,7 +2982,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -3280,22 +2997,22 @@
         <v>0.3</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
-      </c>
-      <c r="R10" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="P10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010003/</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1011003</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -3313,7 +3030,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -3328,22 +3045,22 @@
         <v>0.3</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
-      </c>
-      <c r="R11" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="P11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011003/</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1012003</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -3361,7 +3078,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -3376,22 +3093,22 @@
         <v>0.3</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
-      </c>
-      <c r="R12" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="P12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012003/</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1011004</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -3409,28 +3126,28 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>110</v>
-      </c>
-      <c r="R13" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="P13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011004/</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1012004</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -3448,28 +3165,28 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>110</v>
-      </c>
-      <c r="R14" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="P14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012004/</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1010005</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
@@ -3487,7 +3204,7 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -3502,22 +3219,22 @@
         <v>0.3</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
-      </c>
-      <c r="R15" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="P15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010005/</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1011005</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1">
         <v>150</v>
@@ -3535,7 +3252,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -3550,22 +3267,22 @@
         <v>0.3</v>
       </c>
       <c r="N16" t="s">
-        <v>110</v>
-      </c>
-      <c r="R16" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="P16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011005/</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1012005</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1">
         <v>150</v>
@@ -3583,7 +3300,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -3598,22 +3315,22 @@
         <v>0.3</v>
       </c>
       <c r="N17" t="s">
-        <v>110</v>
-      </c>
-      <c r="R17" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="P17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012005/</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1010006</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1">
         <v>150</v>
@@ -3631,7 +3348,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -3646,22 +3363,22 @@
         <v>0.15</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
-      </c>
-      <c r="R18" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="P18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010006/</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1011006</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
@@ -3679,7 +3396,7 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -3694,22 +3411,22 @@
         <v>0.15</v>
       </c>
       <c r="N19" t="s">
-        <v>113</v>
-      </c>
-      <c r="R19" s="1" t="str">
+        <v>97</v>
+      </c>
+      <c r="P19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011006/</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1012006</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1">
         <v>150</v>
@@ -3727,7 +3444,7 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -3742,22 +3459,22 @@
         <v>0.15</v>
       </c>
       <c r="N20" t="s">
-        <v>110</v>
-      </c>
-      <c r="R20" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="P20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012006/</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1013006</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -3775,7 +3492,7 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
@@ -3790,22 +3507,22 @@
         <v>0.15</v>
       </c>
       <c r="N21" t="s">
-        <v>110</v>
-      </c>
-      <c r="R21" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="P21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013006/</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1012007</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1">
         <v>150</v>
@@ -3823,7 +3540,7 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -3841,22 +3558,22 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R22" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012007/</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q22" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1013007</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1">
         <v>150</v>
@@ -3874,7 +3591,7 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -3892,38 +3609,38 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R23" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013007/</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -3953,9 +3670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4F02CE-18E1-4CEC-BC57-9C41A68A4035}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3967,75 +3684,70 @@
     <col min="13" max="13" width="9" style="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="18" max="18" width="25" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="16" max="16" width="25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1020000</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -4053,7 +3765,7 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -4068,25 +3780,25 @@
         <v>0.3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>129</v>
-      </c>
-      <c r="R2" s="1" t="str">
-        <f t="shared" ref="R2:R25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+        <v>117</v>
+      </c>
+      <c r="O2" t="s">
+        <v>226</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <f t="shared" ref="P2:P25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1020000/</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1021000</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -4104,7 +3816,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -4119,22 +3831,23 @@
         <v>0.3</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R3" s="1" t="str">
+        <v>117</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021000/</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1020001</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -4152,7 +3865,7 @@
         <v>0.05</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
@@ -4166,23 +3879,23 @@
       <c r="L4" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q4" t="s">
-        <v>141</v>
-      </c>
-      <c r="R4" s="1" t="str">
+      <c r="O4" t="s">
+        <v>227</v>
+      </c>
+      <c r="P4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020001/</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1021001</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -4200,7 +3913,7 @@
         <v>0.05</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -4214,20 +3927,20 @@
       <c r="L5" s="1">
         <v>0.1</v>
       </c>
-      <c r="R5" s="1" t="str">
+      <c r="P5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021001/</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1022001</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -4245,7 +3958,7 @@
         <v>0.05</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -4259,20 +3972,20 @@
       <c r="L6" s="1">
         <v>0.1</v>
       </c>
-      <c r="R6" s="1" t="str">
+      <c r="P6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022001/</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1020002</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -4290,7 +4003,7 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -4304,20 +4017,20 @@
       <c r="L7" s="1">
         <v>0.3</v>
       </c>
-      <c r="R7" s="1" t="str">
+      <c r="P7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020002/</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1021002</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -4335,7 +4048,7 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -4349,20 +4062,20 @@
       <c r="L8" s="1">
         <v>0.3</v>
       </c>
-      <c r="R8" s="1" t="str">
+      <c r="P8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021002/</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1022002</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -4380,7 +4093,7 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -4394,20 +4107,20 @@
       <c r="L9" s="1">
         <v>0.3</v>
       </c>
-      <c r="R9" s="1" t="str">
+      <c r="P9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022002/</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1020003</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -4425,7 +4138,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -4440,22 +4153,22 @@
         <v>0.3</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R10" s="1" t="str">
+        <v>117</v>
+      </c>
+      <c r="P10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020003/</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q10" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1021003</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -4473,7 +4186,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -4488,22 +4201,22 @@
         <v>0.3</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R11" s="1" t="str">
+        <v>117</v>
+      </c>
+      <c r="P11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021003/</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1022003</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -4521,7 +4234,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -4536,22 +4249,22 @@
         <v>0.3</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R12" s="1" t="str">
+        <v>117</v>
+      </c>
+      <c r="P12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022003/</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q12" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1020004</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -4569,25 +4282,25 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="R13" s="1" t="str">
+      <c r="P13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020004/</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1021004</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -4605,25 +4318,25 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="R14" s="1" t="str">
+      <c r="P14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021004/</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1022004</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
@@ -4641,25 +4354,25 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="R15" s="1" t="str">
+      <c r="P15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022004/</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1020005</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1">
         <v>150</v>
@@ -4677,7 +4390,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -4691,20 +4404,20 @@
       <c r="L16" s="1">
         <v>0.3</v>
       </c>
-      <c r="R16" s="1" t="str">
+      <c r="P16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020005/</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1021005</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1">
         <v>150</v>
@@ -4722,7 +4435,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -4736,20 +4449,20 @@
       <c r="L17" s="1">
         <v>0.3</v>
       </c>
-      <c r="R17" s="1" t="str">
+      <c r="P17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021005/</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1022005</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1">
         <v>150</v>
@@ -4767,7 +4480,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -4781,20 +4494,20 @@
       <c r="L18" s="1">
         <v>0.3</v>
       </c>
-      <c r="R18" s="1" t="str">
+      <c r="P18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022005/</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1020006</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
@@ -4812,28 +4525,28 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
-      <c r="P19" t="s">
-        <v>131</v>
-      </c>
-      <c r="R19" s="1" t="str">
+      <c r="O19" t="s">
+        <v>228</v>
+      </c>
+      <c r="P19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020006/</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1021006</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1">
         <v>150</v>
@@ -4851,28 +4564,28 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="P20" t="s">
-        <v>131</v>
-      </c>
-      <c r="R20" s="1" t="str">
+      <c r="O20" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021006/</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1020007</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -4890,28 +4603,28 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
-      <c r="P21" t="s">
-        <v>129</v>
-      </c>
-      <c r="R21" s="1" t="str">
+      <c r="O21" t="s">
+        <v>229</v>
+      </c>
+      <c r="P21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020007/</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1022007</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C22" s="1">
         <v>150</v>
@@ -4929,28 +4642,28 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="P22" t="s">
-        <v>129</v>
-      </c>
-      <c r="R22" s="1" t="str">
+      <c r="O22" t="s">
+        <v>229</v>
+      </c>
+      <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022007/</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1020008</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C23" s="1">
         <v>150</v>
@@ -4968,7 +4681,7 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I23" s="1">
         <v>2</v>
@@ -4982,23 +4695,23 @@
       <c r="L23">
         <v>0.22500000000000001</v>
       </c>
-      <c r="Q23" t="s">
-        <v>128</v>
-      </c>
-      <c r="R23" s="1" t="str">
+      <c r="O23" t="s">
+        <v>230</v>
+      </c>
+      <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020008/</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1021008</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C24" s="1">
         <v>150</v>
@@ -5016,7 +4729,7 @@
         <v>0.1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
@@ -5030,20 +4743,20 @@
       <c r="L24" s="1">
         <v>0.22500000000000001</v>
       </c>
-      <c r="R24" s="1" t="str">
+      <c r="P24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021008/</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1022008</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C25" s="1">
         <v>150</v>
@@ -5061,7 +4774,7 @@
         <v>0.1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
@@ -5075,30 +4788,30 @@
       <c r="L25" s="1">
         <v>0.22500000000000001</v>
       </c>
-      <c r="R25" s="1" t="str">
+      <c r="P25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022008/</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -5125,718 +4838,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5381F8-97C8-4316-9E8C-10D9ECA24755}">
-  <dimension ref="A1:S25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9" style="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="11" width="9" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="18" max="18" width="25" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="1">
-        <v>150</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>129</v>
-      </c>
-      <c r="R2" s="1" t="str">
-        <f t="shared" ref="R2:R14" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
-        <v>/Sprites/Tower/4000000/</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>4000001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="1">
-        <v>150</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Tower/4000001/</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>4000002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="1">
-        <v>150</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>141</v>
-      </c>
-      <c r="R4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Tower/4000002/</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4000003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="1">
-        <v>150</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="R5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Tower/4000003/</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4010000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="1">
-        <v>150</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="R6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Tower/4010000/</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>4010001</v>
-      </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="1">
-        <v>150</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="R7" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A7,"/")</f>
-        <v>/Sprites/Tower/4010001/</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>4011001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="1">
-        <v>150</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="R8" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A8,"/")</f>
-        <v>/Sprites/Tower/4011001/</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>4012001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="1">
-        <v>150</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R9" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A9,"/")</f>
-        <v>/Sprites/Tower/4012001/</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>4010002</v>
-      </c>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="1">
-        <v>150</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="N10" t="s">
-        <v>110</v>
-      </c>
-      <c r="O10"/>
-      <c r="R10" s="1" t="str">
-        <f t="shared" ref="R10" si="1">CONCATENATE("/Sprites/Tower/",A10,"/")</f>
-        <v>/Sprites/Tower/4010002/</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>4020000</v>
-      </c>
-      <c r="B11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="1">
-        <v>150</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Tower/4020000/</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>4020001</v>
-      </c>
-      <c r="B12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="1">
-        <v>150</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Tower/4020001/</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>4020002</v>
-      </c>
-      <c r="B13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="1">
-        <v>150</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="R13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Tower/4020002/</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>4020005</v>
-      </c>
-      <c r="B14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="1">
-        <v>150</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="R14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Tower/4020005/</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B15"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27:A1048576 A1:A25" xr:uid="{AB708ADF-5841-4EF2-8D25-37A7A73C0567}">
-      <formula1>COUNTIFS($A:$A,A1)=1</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75967C55-9BA4-40EE-BBD0-AF03F89CCB6F}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -5858,34 +4859,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -5894,7 +4895,7 @@
         <v>2000000</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -5919,7 +4920,7 @@
         <v>/Sprites/Enemy/2000000/</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5927,7 +4928,7 @@
         <v>2000001</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -5952,7 +4953,7 @@
         <v>/Sprites/Enemy/2000001/</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5960,7 +4961,7 @@
         <v>2000002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -5985,7 +4986,7 @@
         <v>/Sprites/Enemy/2000002/</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5993,7 +4994,7 @@
         <v>2001002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -6018,7 +5019,7 @@
         <v>/Sprites/Enemy/2001002/</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6026,7 +5027,7 @@
         <v>2001003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -6051,7 +5052,7 @@
         <v>/Sprites/Enemy/2001003/</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6059,7 +5060,7 @@
         <v>2001004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -6084,7 +5085,7 @@
         <v>/Sprites/Enemy/2001004/</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6092,7 +5093,7 @@
         <v>2002005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -6117,7 +5118,7 @@
         <v>/Sprites/Enemy/2002005/</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6125,7 +5126,7 @@
         <v>2000100</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -6150,7 +5151,7 @@
         <v>/Sprites/Enemy/2000100/</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -6158,7 +5159,7 @@
         <v>2000101</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -6183,7 +5184,7 @@
         <v>/Sprites/Enemy/2000101/</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -6191,7 +5192,7 @@
         <v>2000102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -6216,7 +5217,7 @@
         <v>/Sprites/Enemy/2000102/</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -6224,7 +5225,7 @@
         <v>2001102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -6249,7 +5250,7 @@
         <v>/Sprites/Enemy/2001102/</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -6257,7 +5258,7 @@
         <v>2001103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -6282,7 +5283,7 @@
         <v>/Sprites/Enemy/2001103/</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -6290,7 +5291,7 @@
         <v>2001104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -6315,7 +5316,7 @@
         <v>/Sprites/Enemy/2001104/</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -6323,7 +5324,7 @@
         <v>2002105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -6348,7 +5349,7 @@
         <v>/Sprites/Enemy/2002105/</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6362,7 +5363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C28BD20-4060-4017-8FFF-9C9E3C00F1E8}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -6384,34 +5385,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -6420,7 +5421,7 @@
         <v>2010000</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -6445,7 +5446,7 @@
         <v>/Sprites/Enemy/2010000/</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6453,7 +5454,7 @@
         <v>2010001</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -6478,7 +5479,7 @@
         <v>/Sprites/Enemy/2010001/</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6486,7 +5487,7 @@
         <v>2010002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -6511,7 +5512,7 @@
         <v>/Sprites/Enemy/2010002/</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6519,7 +5520,7 @@
         <v>2011002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -6544,7 +5545,7 @@
         <v>/Sprites/Enemy/2011002/</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6552,7 +5553,7 @@
         <v>2011003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -6577,7 +5578,7 @@
         <v>/Sprites/Enemy/2011003/</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6585,7 +5586,7 @@
         <v>2011004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -6610,7 +5611,7 @@
         <v>/Sprites/Enemy/2011004/</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6618,7 +5619,7 @@
         <v>2012005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -6643,7 +5644,7 @@
         <v>/Sprites/Enemy/2012005/</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6651,7 +5652,7 @@
         <v>2010100</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -6676,7 +5677,7 @@
         <v>/Sprites/Enemy/2010100/</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -6684,7 +5685,7 @@
         <v>2010101</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -6709,7 +5710,7 @@
         <v>/Sprites/Enemy/2010101/</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -6717,7 +5718,7 @@
         <v>2010102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -6742,7 +5743,7 @@
         <v>/Sprites/Enemy/2010102/</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -6750,7 +5751,7 @@
         <v>2011102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -6775,7 +5776,7 @@
         <v>/Sprites/Enemy/2011102/</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -6783,7 +5784,7 @@
         <v>2011103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -6808,7 +5809,7 @@
         <v>/Sprites/Enemy/2011103/</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -6816,7 +5817,7 @@
         <v>2011104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -6841,7 +5842,7 @@
         <v>/Sprites/Enemy/2011104/</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -6849,7 +5850,7 @@
         <v>2012105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -6874,7 +5875,7 @@
         <v>/Sprites/Enemy/2012105/</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6888,7 +5889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F511731-D966-487D-B559-FFB18F3F2C14}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -6909,34 +5910,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -6945,7 +5946,7 @@
         <v>2020000</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -6970,7 +5971,7 @@
         <v>/Sprites/Enemy/2020000/</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6978,7 +5979,7 @@
         <v>2020001</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -7003,7 +6004,7 @@
         <v>/Sprites/Enemy/2020001/</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -7011,7 +6012,7 @@
         <v>2020002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -7036,7 +6037,7 @@
         <v>/Sprites/Enemy/2020002/</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -7044,7 +6045,7 @@
         <v>2021002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -7069,7 +6070,7 @@
         <v>/Sprites/Enemy/2021002/</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7077,7 +6078,7 @@
         <v>2021003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -7102,7 +6103,7 @@
         <v>/Sprites/Enemy/2021003/</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7110,7 +6111,7 @@
         <v>2021004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -7135,7 +6136,7 @@
         <v>/Sprites/Enemy/2021004/</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7143,7 +6144,7 @@
         <v>2022005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -7168,7 +6169,7 @@
         <v>/Sprites/Enemy/2022005/</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -7176,7 +6177,7 @@
         <v>2020100</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -7201,7 +6202,7 @@
         <v>/Sprites/Enemy/2020100/</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -7209,7 +6210,7 @@
         <v>2020101</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -7234,7 +6235,7 @@
         <v>/Sprites/Enemy/2020101/</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -7242,7 +6243,7 @@
         <v>2020102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -7267,7 +6268,7 @@
         <v>/Sprites/Enemy/2020102/</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -7275,7 +6276,7 @@
         <v>2021102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -7300,7 +6301,7 @@
         <v>/Sprites/Enemy/2021102/</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -7308,7 +6309,7 @@
         <v>2021103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -7333,7 +6334,7 @@
         <v>/Sprites/Enemy/2021103/</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -7341,7 +6342,7 @@
         <v>2021104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -7366,7 +6367,7 @@
         <v>/Sprites/Enemy/2021104/</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -7374,7 +6375,7 @@
         <v>2022105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -7399,7 +6400,7 @@
         <v>/Sprites/Enemy/2022105/</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -7413,537 +6414,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3772D7-A36A-432F-9AE3-217645637BC6}">
-  <dimension ref="A1:K15"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF271AF4-E94B-43D7-A6A9-013F378630A5}">
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>5020000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>50</v>
-      </c>
-      <c r="H2" s="1">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <f t="shared" ref="I2:I15" si="0">CONCATENATE("/Sprites/Enemy/",A2,"/")</f>
-        <v>/Sprites/Enemy/5020000/</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>5020001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>50</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Enemy/5020001/</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>5020002</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>50</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Enemy/5020002/</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>5021002</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>50</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Enemy/5021002/</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5021003</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>50</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Enemy/5021003/</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5021004</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Enemy/5021004/</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5022005</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Enemy/5022005/</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>5020100</v>
-      </c>
-      <c r="B9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Enemy/5020100/</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>5020101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>50</v>
-      </c>
-      <c r="H10" s="1">
-        <v>5</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Enemy/5020101/</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>5020102</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>50</v>
-      </c>
-      <c r="H11" s="1">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Enemy/5020102/</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>5021102</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>50</v>
-      </c>
-      <c r="H12" s="1">
-        <v>5</v>
-      </c>
-      <c r="I12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Enemy/5021102/</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>5021103</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>50</v>
-      </c>
-      <c r="H13" s="1">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Enemy/5021103/</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>5021104</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>50</v>
-      </c>
-      <c r="H14" s="1">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Enemy/5021104/</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>5022105</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>50</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Enemy/5022105/</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{93E42DEC-E91E-4B23-B621-016AD9606CB5}">
-      <formula1>COUNTIF(A:A,A1)=1</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF271AF4-E94B-43D7-A6A9-013F378630A5}">
-  <dimension ref="A1:C54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7954,13 +6430,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -7968,7 +6444,7 @@
         <v>3000000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7976,7 +6452,7 @@
         <v>3000001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -7988,7 +6464,7 @@
         <v>3001999</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -7996,7 +6472,7 @@
         <v>3001000</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -8004,7 +6480,7 @@
         <v>3001001</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -8012,7 +6488,7 @@
         <v>3001002</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -8023,7 +6499,7 @@
         <v>3002000</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -8031,7 +6507,7 @@
         <v>3002001</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -8039,7 +6515,7 @@
         <v>3002002</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -8047,298 +6523,304 @@
         <v>3002003</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>3003000</v>
+        <v>3100000</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>214</v>
+      </c>
+      <c r="C15" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>3003001</v>
+        <v>3100001</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>215</v>
+      </c>
+      <c r="C16" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>3003002</v>
+        <v>3100002</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>216</v>
+      </c>
+      <c r="C17" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>3004000</v>
+        <v>3101000</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>152</v>
+      </c>
+      <c r="C19" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>3004001</v>
+        <v>3101001</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>3004002</v>
+        <v>3101002</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>3004003</v>
+        <v>3101003</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>3101004</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>3100000</v>
+        <v>3101005</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>3100001</v>
-      </c>
-      <c r="B25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C25" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>3100002</v>
+        <v>3200000</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" t="s">
-        <v>244</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>3200001</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>3101000</v>
+        <v>3200002</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>3101001</v>
-      </c>
-      <c r="B29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>3101002</v>
+        <v>3201000</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>3101003</v>
+        <v>3201001</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>3101004</v>
-      </c>
-      <c r="B32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C32" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>3101005</v>
+        <v>3201100</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>3201101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>3200000</v>
+        <v>3201102</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>3200001</v>
-      </c>
-      <c r="B36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>3200002</v>
+        <v>3201200</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>3200003</v>
+        <v>3201201</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>3200004</v>
+        <v>3201202</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>3201000</v>
-      </c>
-      <c r="B41" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>3201203</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>3201001</v>
+        <v>3202000</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>3201002</v>
+        <v>3202001</v>
       </c>
       <c r="B43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>3201003</v>
+        <v>3202002</v>
       </c>
       <c r="B44" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>3201004</v>
+        <v>3202003</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>3201005</v>
+        <v>3202004</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>3300000</v>
-      </c>
-      <c r="B48" t="s">
-        <v>197</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>3202005</v>
+      </c>
+      <c r="B47" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>3300001</v>
+        <v>3300000</v>
       </c>
       <c r="B49" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
+        <v>3300001</v>
+      </c>
+      <c r="B50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>3300002</v>
       </c>
-      <c r="B50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>3301000</v>
-      </c>
-      <c r="B52" t="s">
-        <v>200</v>
+      <c r="B51" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>3301001</v>
+        <v>3301000</v>
       </c>
       <c r="B53" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
+        <v>3301001</v>
+      </c>
+      <c r="B54" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>3301002</v>
       </c>
-      <c r="B54" t="s">
-        <v>201</v>
+      <c r="B55" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -8350,4 +6832,262 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8E4527-3365-487A-B440-8E1995F53AC4}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{41BF5432-82E9-4C52-9DEB-55ECF7CE15FC}">
+      <formula1>COUNTIF(A:A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E51131-8292-4C96-A8C6-57F82B798DDF}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76696083-E0DD-4586-A806-B6518C940550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDB3505-CBD5-4DFD-AB66-DC57EE8D67EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27600" yWindow="5355" windowWidth="18075" windowHeight="14130" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28455" yWindow="5730" windowWidth="18075" windowHeight="14130" tabRatio="831" firstSheet="1" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="TOWER@FIRE" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="245">
   <si>
     <t>ATTACKSPEED</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1012,6 +1012,10 @@
   </si>
   <si>
     <t>1,1.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1388,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F370FB-69E7-436B-99AD-BE543F2F51A7}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
@@ -2569,9 +2573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3F0F3C-A656-4EC0-A859-21F1263F0A34}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:Q1048576"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2666,6 +2670,9 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
+      <c r="O2" t="s">
+        <v>244</v>
+      </c>
       <c r="P2" s="1" t="str">
         <f t="shared" ref="P2:P23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1010000/</v>
@@ -3670,9 +3677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4F02CE-18E1-4CEC-BC57-9C41A68A4035}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:Q1048576"/>
+      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4513,7 +4520,7 @@
         <v>150</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>2.5</v>
@@ -4552,7 +4559,7 @@
         <v>150</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>2.5</v>
@@ -4591,7 +4598,7 @@
         <v>150</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>2.5</v>
@@ -4630,7 +4637,7 @@
         <v>150</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
         <v>2.5</v>
@@ -6871,7 +6878,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDB3505-CBD5-4DFD-AB66-DC57EE8D67EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAB9A89-DEBD-464A-B5E6-95F6E46844B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28455" yWindow="5730" windowWidth="18075" windowHeight="14130" tabRatio="831" firstSheet="1" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28485" yWindow="5850" windowWidth="21735" windowHeight="14130" tabRatio="831" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="TOWER@FIRE" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="247">
   <si>
     <t>ATTACKSPEED</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -943,30 +943,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>202,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>203,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,0.4;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201,0.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AbilityType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1007,15 +983,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101,1;</t>
+    <t>201,3,0,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201,3,0,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,0,1.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202,2.5,0,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203,2,0,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,5,0.3,1;</t>
+  </si>
+  <si>
+    <t>101,5,0.3,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102,5,0.3,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,2.5,0,0.4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,5,0.4,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1392,9 +1399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F370FB-69E7-436B-99AD-BE543F2F51A7}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1405,7 +1412,7 @@
     <col min="12" max="12" width="12" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
+    <col min="15" max="15" width="22.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
     <col min="20" max="16384" width="9" style="1"/>
@@ -1496,7 +1503,7 @@
         <v>61</v>
       </c>
       <c r="O2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P2" s="1" t="str">
         <f t="shared" ref="P2:P23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
@@ -1544,7 +1551,7 @@
         <v>0.3</v>
       </c>
       <c r="O3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1595,7 +1602,7 @@
         <v>61</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1754,7 +1761,7 @@
         <v>0.3</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2573,9 +2580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3F0F3C-A656-4EC0-A859-21F1263F0A34}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2584,6 +2591,7 @@
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
+    <col min="15" max="15" width="22.5" customWidth="1"/>
     <col min="16" max="16" width="25" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
     <col min="20" max="16384" width="9" style="1"/>
@@ -2671,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P2" s="1" t="str">
         <f t="shared" ref="P2:P23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
@@ -3677,9 +3685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4F02CE-18E1-4CEC-BC57-9C41A68A4035}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3690,7 +3698,7 @@
     <col min="10" max="11" width="9" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
+    <col min="15" max="15" width="22.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
     <col min="20" max="16384" width="9" style="1"/>
@@ -3790,7 +3798,7 @@
         <v>117</v>
       </c>
       <c r="O2" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="P2" s="1" t="str">
         <f t="shared" ref="P2:P25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
@@ -3887,7 +3895,7 @@
         <v>0.1</v>
       </c>
       <c r="O4" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="P4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4538,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4577,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="P20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4616,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4655,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4703,7 +4711,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="O23" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7021,34 +7029,34 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" t="s">
         <v>232</v>
       </c>
-      <c r="B9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="I9" t="s">
         <v>234</v>
       </c>
-      <c r="D9" t="s">
+      <c r="J9" t="s">
         <v>235</v>
-      </c>
-      <c r="E9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F9" t="s">
-        <v>237</v>
-      </c>
-      <c r="G9" t="s">
-        <v>239</v>
-      </c>
-      <c r="H9" t="s">
-        <v>238</v>
-      </c>
-      <c r="I9" t="s">
-        <v>240</v>
-      </c>
-      <c r="J9" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAB9A89-DEBD-464A-B5E6-95F6E46844B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E10CA6-D204-4D83-9584-B26AFCEEB181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28485" yWindow="5850" windowWidth="21735" windowHeight="14130" tabRatio="831" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-26940" yWindow="5295" windowWidth="21735" windowHeight="14130" tabRatio="831" activeTab="7" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="TOWER@FIRE" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="250">
   <si>
     <t>ATTACKSPEED</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,18 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2000000,2010000,2020000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AnimationType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,803 +214,689 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2000100,2010100,2020100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOVE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020000,2020001,2020002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021003,2021004,2022005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020100,2020101,2020102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021103,2021104,2022105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.5,0.0625</t>
   </si>
   <si>
     <t>(1,0,0,1)</t>
   </si>
   <si>
+    <t>(1,0,0,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;</t>
+  </si>
+  <si>
+    <t>0.5,0.0625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pivot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgsrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectspf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projattacktime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projspf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attacktime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackspeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;0.8;1.4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0.6,0.8,1,1)</t>
+  </si>
+  <si>
+    <t>0.6;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0.6,0.8,1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;0.9;</t>
+  </si>
+  <si>
+    <t>0.2;0.8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.05</t>
+  </si>
+  <si>
+    <t>(1,0,1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3;</t>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyStatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTISHOT=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPLASH=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLDMINE=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMG=101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATKSPD=102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BURN=201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLOW=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POISON=202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLEED=203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202,2.5,0,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203,2,0,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,5,0.3,1;</t>
+  </si>
+  <si>
+    <t>101,5,0.3,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102,5,0.3,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,2.5,0,0.4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,5,0.4,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워;Tower</t>
+  </si>
+  <si>
+    <t>적;Enemy</t>
+  </si>
+  <si>
+    <t>랜덤;RANDOM</t>
+  </si>
+  <si>
+    <t>불;Fire</t>
+  </si>
+  <si>
+    <t>물;Water</t>
+  </si>
+  <si>
+    <t>자연;Nature</t>
+  </si>
+  <si>
+    <t>일반;Common</t>
+  </si>
+  <si>
+    <t>희귀;Rare</t>
+  </si>
+  <si>
+    <t>영웅;Heroic</t>
+  </si>
+  <si>
+    <t>전설;Legendary</t>
+  </si>
+  <si>
+    <t>라제라;Razera</t>
+  </si>
+  <si>
+    <t>라제라 캐릭 특성 설명;Razera Description</t>
+  </si>
+  <si>
+    <t>이델리아;Idelia</t>
+  </si>
+  <si>
+    <t>이델리아 캐릭 특성 설명;Idelia Description</t>
+  </si>
+  <si>
+    <t>자코나;Zakona</t>
+  </si>
+  <si>
+    <t>자코나 캐릭 특성 설명;Zakona Description</t>
+  </si>
+  <si>
+    <t>체력;HP</t>
+  </si>
+  <si>
+    <t>적들의 체력이 50% 증가합니다.;Increase enemy's HP by 50%.</t>
+  </si>
+  <si>
+    <t>속도;Speed</t>
+  </si>
+  <si>
+    <t>적들의 이동속도가 50% 증가합니다.;Increase enemy's speed by 50%.</t>
+  </si>
+  <si>
+    <t>물량;Amount</t>
+  </si>
+  <si>
+    <t>나오는 적들의 수가 50% 증가합니다.;Increase enemy's amount by 50%.</t>
+  </si>
+  <si>
+    <t>준비시간;Time</t>
+  </si>
+  <si>
+    <t>라운드 준비시간이 50% 감소합니다.;Decrease round preparation time by 50%.</t>
+  </si>
+  <si>
+    <t>비용;Cost</t>
+  </si>
+  <si>
+    <t>코스트가 50% 증가합니다.;Increase cost by 50%.</t>
+  </si>
+  <si>
+    <t>등장확률;Probablity</t>
+  </si>
+  <si>
+    <t>상위 유닛 등장 확률이 50% 감소합니다.;Decrease probablity of strong tower by 50%.</t>
+  </si>
+  <si>
+    <t>공격력;Damage</t>
+  </si>
+  <si>
+    <t>공격속도;AttackSpeed</t>
+  </si>
+  <si>
+    <t>사거리;Range</t>
+  </si>
+  <si>
+    <t>멀티샷;Multi Shot</t>
+  </si>
+  <si>
+    <t>스플래시;Splash</t>
+  </si>
+  <si>
+    <t>금광;Goldmine</t>
+  </si>
+  <si>
+    <t>공격속도;Attack Speed</t>
+  </si>
+  <si>
+    <t>슬로우;Slow</t>
+  </si>
+  <si>
+    <t>화상;Burn</t>
+  </si>
+  <si>
+    <t>중독;Poison</t>
+  </si>
+  <si>
+    <t>출혈;Bleed</t>
+  </si>
+  <si>
+    <t>앞에 있는 유닛;First</t>
+  </si>
+  <si>
+    <t>뒤에 있는 유닛;Last</t>
+  </si>
+  <si>
+    <t>체력이 많은 유닛;Strong</t>
+  </si>
+  <si>
+    <t>체력이 적은 유닛;Weak</t>
+  </si>
+  <si>
+    <t>상성;Element</t>
+  </si>
+  <si>
+    <t>디버프가 없는 유닛;Debuff</t>
+  </si>
+  <si>
+    <t>이동속도;SPEED</t>
+  </si>
+  <si>
+    <t>경험치;EXP</t>
+  </si>
+  <si>
+    <t>일반;NORMAL</t>
+  </si>
+  <si>
+    <t>네임드;ELITE</t>
+  </si>
+  <si>
+    <t>보스;BOSS</t>
+  </si>
+  <si>
+    <t>다음 라운드의 정보는 이 곳에 나타납니다.;Information for the next round will come from here.</t>
+  </si>
+  <si>
+    <t>이 곳을 누르면 상점이 열립니다.;Click here to open the store.</t>
+  </si>
+  <si>
+    <t>획득한 타워는 구매하여 지을 수 있습니다.;towers can be built by purchasing them.</t>
+  </si>
+  <si>
+    <t>레벨 업 시 능력치를 찍을 수 있습니다. 속성별로 공격력과 공격속도를 강화할 수 있습니다.;You can improve your stats when you level up. You can enhance Damage and Attack speed for each element.</t>
+  </si>
+  <si>
+    <t>2020000;2020001;2020002</t>
+  </si>
+  <si>
+    <t>5;5;5</t>
+  </si>
+  <si>
+    <t>2021003;2021004;2022005</t>
+  </si>
+  <si>
+    <t>3;3;1</t>
+  </si>
+  <si>
+    <t>2020100;2020101;2020102</t>
+  </si>
+  <si>
+    <t>2021103;2021104;2022105</t>
+  </si>
+  <si>
+    <t>2000000;2010000;2020000</t>
+  </si>
+  <si>
+    <t>10;10;10</t>
+  </si>
+  <si>
+    <t>2000100;2010100;2020100</t>
+  </si>
+  <si>
+    <t>횃불;Torch</t>
+  </si>
+  <si>
+    <t>201,3,0,0.5;</t>
+  </si>
+  <si>
+    <t>돌팔매;Sling</t>
+  </si>
+  <si>
+    <t>화염병;Molotov</t>
+  </si>
+  <si>
+    <t>1,3,0,1.5;</t>
+  </si>
+  <si>
+    <t>화염검;Sword</t>
+  </si>
+  <si>
+    <t>화염활;Bow</t>
+  </si>
+  <si>
+    <t>0.32;</t>
+  </si>
+  <si>
+    <t>0,0,0,2;</t>
+  </si>
+  <si>
+    <t>무도가;Fighter</t>
+  </si>
+  <si>
+    <t>0;0.15;</t>
+  </si>
+  <si>
+    <t>파이어볼;FireBall</t>
+  </si>
+  <si>
+    <t>0.48;</t>
+  </si>
+  <si>
+    <t>인페르노;Inferno</t>
+  </si>
+  <si>
+    <t>파이어 블라스트;Fire Blast</t>
+  </si>
+  <si>
+    <t>메테오;Metor</t>
+  </si>
+  <si>
+    <t>블레이즈;Blaze</t>
+  </si>
+  <si>
+    <t>도깨비불;Fire Orb</t>
+  </si>
+  <si>
     <t>0.525;1.125;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비불,Fire Orb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블레이즈,Blaze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.48;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메테오,Metor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 블라스트,Fire Blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1,0,0,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인페르노,Inferno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어볼,FireBall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;0.15;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무도가,Fighter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.32;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염활,Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2;</t>
-  </si>
-  <si>
-    <t>화염검,Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염병,Molotov</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,0.0625</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌팔매,Sling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불,Torch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pivot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgsrc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectcolor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectspf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projattacktime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projspf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attacktime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackspeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2;0.8;1.4;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>함선,Ship</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0.6,0.8,1,1)</t>
-  </si>
-  <si>
-    <t>0.6;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스애로우,IceArrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0.6,0.8,1,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스볼트,IceBolt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬로우,Slow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁수,Archer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창,Spear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선장,Captain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적,Pirate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2;0.9;</t>
-  </si>
-  <si>
-    <t>바이킹,Viking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2;0.8;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드루이드,Druid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요정,Fairy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바드,Bard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 궁수,Elf Archer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 창술사,Elf Spear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,0.05</t>
-  </si>
-  <si>
-    <t>(1,0,1,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>켄타우로스,Centaurs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3;</t>
-  </si>
-  <si>
-    <t>사티로스,Satyr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트래퍼,Trapper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다트,Dart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오크,Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크엘프 로드, Dark Elf Lord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크엘프 마검사, Dark Elf Magic Knight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크엘프 마법사, Dark Elf Mage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크엘프 어쌔신, Dark Elf Assassin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크엘프 창술사, Dark Elf Spearman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크엘프 검사, Dark Elf Soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오크 족장, Chief Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오크샤먼, Shaman Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자이언트 오크, Giant Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정예 오크도끼전사, Elite Orc Axe Solider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오크도끼전사, Orc Axe Soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오크병사, Orc Solider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물,Water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자연,Nature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력,Damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도,Attack Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금광,Goldmine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화상,Burn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출혈,Bleed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중독,Poison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물량,Amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도,Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력,HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등장확률,Probablity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비용,Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도,AttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준비시간,Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타워,Tower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적,Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반,Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희귀,Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영웅,Heroic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전설,Legendary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사거리,Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티샷,Multi Shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스플래시,Splash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 많은 유닛,Strong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 적은 유닛,Weak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상성,Element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프가 없는 유닛,Debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앞에 있는 유닛,First</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤에 있는 유닛,Last</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랜덤,RANDOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyStatType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력,HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도,SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경험치,EXP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반,NORMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스,BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네임드,ELITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스 오크,Ice Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스 오크병사,Ice Orc Solider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스 오크도끼전사,Ice Orc Axe Soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정예 아이스 오크도끼전사, Elite Ice Orc Axe Solider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자이언트 아이스 오크, Giant Ice Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스 오크샤먼, Shaman Ice Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스 다크엘프 검사,Ice Dark Elf Soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스 다크엘프 창술사,Ice Dark Elf Spearman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스 다크엘프 어쌔신,Ice Dark Elf Assassin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스 다크엘프 마법사,Ice Dark Elf Mage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스 다크엘프 마검사,Ice Dark Elf Magic Knight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스 다크엘프 로드,Ice Dark Elf Lord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 오크,Fire Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 오크병사,Fire Orc Solider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 오크도끼전사,Fire Orc Axe Soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정예 파이어 오크도끼전사, Elite Fire Orc Axe Solider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자이언트 파이어 오크, Giant Fire Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 오크샤먼, Shaman Fire Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 오크 족장, Chief Fire Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스 오크 족장, Chief Ice Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 다크엘프 검사,Fire Dark Elf Soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 다크엘프 창술사,Fire Dark Elf Spearman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 다크엘프 어쌔신,Fire Dark Elf Assassin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 다크엘프 마법사,Fire Dark Elf Mage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 다크엘프 마검사,Fire Dark Elf Magic Knight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 다크엘프 로드,Fire Dark Elf Lord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라제라,Razera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이델리아,Idelia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자코나,Zakona</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적들의 체력이 50% 증가합니다.,Increase enemy's HP by 50%.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적들의 이동속도가 50% 증가합니다.,Increase enemy's speed by 50%.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나오는 적들의 수가 50% 증가합니다.,Increase enemy's amount by 50%.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라운드 준비시간이 50% 감소합니다.,Decrease round preparation time by 50%.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코스트가 50% 증가합니다.,Increase cost by 50%.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상위 유닛 등장 확률이 50% 감소합니다.,Decrease probablity of strong tower by 50%.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이델리아 캐릭 특성 설명,Idelia Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자코나 캐릭 특성 설명,Zakona Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라제라 캐릭 특성 설명,Razera Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AbilityType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MULTISHOT=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPLASH=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOLDMINE=100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMG=101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATKSPD=102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BURN=201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLOW=200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POISON=202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLEED=203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201,3,0,0.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201,3,0,0.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,0,1.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202,2.5,0,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>203,2,0,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101,5,0.3,1;</t>
-  </si>
-  <si>
-    <t>101,5,0.3,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102,5,0.3,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,2.5,0,0.4;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101,5,0.4,1;</t>
+  </si>
+  <si>
+    <t>바이킹;Viking</t>
+  </si>
+  <si>
+    <t>해적;Pirate</t>
+  </si>
+  <si>
+    <t>선장;Captain</t>
+  </si>
+  <si>
+    <t>창;Spear</t>
+  </si>
+  <si>
+    <t>궁수;Archer</t>
+  </si>
+  <si>
+    <t>아이스볼트;IceBolt</t>
+  </si>
+  <si>
+    <t>아이스애로우;IceArrow</t>
+  </si>
+  <si>
+    <t>함선;Ship</t>
+  </si>
+  <si>
+    <t>다트;Dart</t>
+  </si>
+  <si>
+    <t>트래퍼;Trapper</t>
+  </si>
+  <si>
+    <t>사티로스;Satyr</t>
+  </si>
+  <si>
+    <t>켄타우로스;Centaurs</t>
+  </si>
+  <si>
+    <t>엘프 창술사;Elf Spear</t>
+  </si>
+  <si>
+    <t>엘프 궁수;Elf Archer</t>
+  </si>
+  <si>
+    <t>바드;Bard</t>
+  </si>
+  <si>
+    <t>요정;Fairy</t>
+  </si>
+  <si>
+    <t>드루이드;Druid</t>
+  </si>
+  <si>
+    <t>파이어 오크;Fire Orc</t>
+  </si>
+  <si>
+    <t>파이어 오크병사;Fire Orc Solider</t>
+  </si>
+  <si>
+    <t>파이어 오크도끼전사;Fire Orc Axe Soldier</t>
+  </si>
+  <si>
+    <t>정예 파이어 오크도끼전사; Elite Fire Orc Axe Solider</t>
+  </si>
+  <si>
+    <t>자이언트 파이어 오크; Giant Fire Orc</t>
+  </si>
+  <si>
+    <t>파이어 오크샤먼; Shaman Fire Orc</t>
+  </si>
+  <si>
+    <t>파이어 오크 족장; Chief Fire Orc</t>
+  </si>
+  <si>
+    <t>파이어 다크엘프 검사;Fire Dark Elf Soldier</t>
+  </si>
+  <si>
+    <t>파이어 다크엘프 창술사;Fire Dark Elf Spearman</t>
+  </si>
+  <si>
+    <t>파이어 다크엘프 어쌔신;Fire Dark Elf Assassin</t>
+  </si>
+  <si>
+    <t>파이어 다크엘프 마법사;Fire Dark Elf Mage</t>
+  </si>
+  <si>
+    <t>파이어 다크엘프 마검사;Fire Dark Elf Magic Knight</t>
+  </si>
+  <si>
+    <t>파이어 다크엘프 로드;Fire Dark Elf Lord</t>
+  </si>
+  <si>
+    <t>아이스 오크;Ice Orc</t>
+  </si>
+  <si>
+    <t>아이스 오크병사;Ice Orc Solider</t>
+  </si>
+  <si>
+    <t>아이스 오크도끼전사;Ice Orc Axe Soldier</t>
+  </si>
+  <si>
+    <t>정예 아이스 오크도끼전사; Elite Ice Orc Axe Solider</t>
+  </si>
+  <si>
+    <t>자이언트 아이스 오크; Giant Ice Orc</t>
+  </si>
+  <si>
+    <t>아이스 오크샤먼; Shaman Ice Orc</t>
+  </si>
+  <si>
+    <t>아이스 오크 족장; Chief Ice Orc</t>
+  </si>
+  <si>
+    <t>아이스 다크엘프 검사;Ice Dark Elf Soldier</t>
+  </si>
+  <si>
+    <t>아이스 다크엘프 창술사;Ice Dark Elf Spearman</t>
+  </si>
+  <si>
+    <t>아이스 다크엘프 어쌔신;Ice Dark Elf Assassin</t>
+  </si>
+  <si>
+    <t>아이스 다크엘프 마법사;Ice Dark Elf Mage</t>
+  </si>
+  <si>
+    <t>아이스 다크엘프 마검사;Ice Dark Elf Magic Knight</t>
+  </si>
+  <si>
+    <t>아이스 다크엘프 로드;Ice Dark Elf Lord</t>
+  </si>
+  <si>
+    <t>오크;Orc</t>
+  </si>
+  <si>
+    <t>오크병사; Orc Solider</t>
+  </si>
+  <si>
+    <t>오크도끼전사; Orc Axe Soldier</t>
+  </si>
+  <si>
+    <t>정예 오크도끼전사; Elite Orc Axe Solider</t>
+  </si>
+  <si>
+    <t>자이언트 오크; Giant Orc</t>
+  </si>
+  <si>
+    <t>오크샤먼; Shaman Orc</t>
+  </si>
+  <si>
+    <t>오크 족장; Chief Orc</t>
+  </si>
+  <si>
+    <t>다크엘프 검사; Dark Elf Soldier</t>
+  </si>
+  <si>
+    <t>다크엘프 창술사; Dark Elf Spearman</t>
+  </si>
+  <si>
+    <t>다크엘프 어쌔신; Dark Elf Assassin</t>
+  </si>
+  <si>
+    <t>다크엘프 마법사; Dark Elf Mage</t>
+  </si>
+  <si>
+    <t>다크엘프 마검사; Dark Elf Magic Knight</t>
+  </si>
+  <si>
+    <t>다크엘프 로드; Dark Elf Lord</t>
+  </si>
+  <si>
+    <t>상점에서 타워를 획득할 수 있습니다. 리롤을 통해 목록을 바꿀 수 있습니다.;You can get towers from the store. If you don't want to, you can change the list by rerolling.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지어진 타워는 클릭 시 정보가 나타납니다. 우선순위 설정, 업그레이드, 판매 등을 할 수 있습니다.;Information about the built tower will appear when you click on it. You can set priorities, upgrade, sell, and more.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1401,7 +1275,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1420,55 +1294,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -1476,7 +1350,7 @@
         <v>1000000</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -1494,23 +1368,23 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="P2" s="1" t="str">
         <f t="shared" ref="P2:P23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1000000/</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1518,7 +1392,7 @@
         <v>1000001</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -1536,7 +1410,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -1551,14 +1425,14 @@
         <v>0.3</v>
       </c>
       <c r="O3" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="P3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000001/</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,7 +1440,7 @@
         <v>1000002</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -1584,7 +1458,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -1599,17 +1473,17 @@
         <v>0.3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="P4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000002/</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,7 +1491,7 @@
         <v>1000003</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -1635,20 +1509,20 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000003/</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,7 +1530,7 @@
         <v>1001003</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -1674,7 +1548,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1684,7 +1558,7 @@
         <v>/Sprites/Tower/1001003/</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1692,7 +1566,7 @@
         <v>1002003</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -1710,7 +1584,7 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1720,7 +1594,7 @@
         <v>/Sprites/Tower/1002003/</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,7 +1602,7 @@
         <v>1000004</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -1746,7 +1620,7 @@
         <v>0.08</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1761,14 +1635,14 @@
         <v>0.3</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="P8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000004/</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1776,7 +1650,7 @@
         <v>1001004</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -1794,7 +1668,7 @@
         <v>0.08</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1813,7 +1687,7 @@
         <v>/Sprites/Tower/1001004/</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,7 +1695,7 @@
         <v>1002004</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -1839,7 +1713,7 @@
         <v>0.08</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1858,7 +1732,7 @@
         <v>/Sprites/Tower/1002004/</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,7 +1740,7 @@
         <v>1000005</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -1884,7 +1758,7 @@
         <v>0.15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1894,7 +1768,7 @@
         <v>/Sprites/Tower/1000005/</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,7 +1776,7 @@
         <v>1001005</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -1920,7 +1794,7 @@
         <v>0.15</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1930,7 +1804,7 @@
         <v>/Sprites/Tower/1001005/</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,7 +1812,7 @@
         <v>1002005</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -1956,7 +1830,7 @@
         <v>0.15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -1966,7 +1840,7 @@
         <v>/Sprites/Tower/1002005/</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,7 +1848,7 @@
         <v>1000006</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -1992,7 +1866,7 @@
         <v>0.06</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -2007,14 +1881,14 @@
         <v>0.3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000006/</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,7 +1896,7 @@
         <v>1001006</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
@@ -2040,7 +1914,7 @@
         <v>0.06</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
@@ -2055,14 +1929,14 @@
         <v>0.3</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001006/</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,7 +1944,7 @@
         <v>1002006</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="C16" s="1">
         <v>150</v>
@@ -2088,7 +1962,7 @@
         <v>0.06</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -2103,14 +1977,14 @@
         <v>0.3</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002006/</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,7 +1992,7 @@
         <v>1003006</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="C17" s="1">
         <v>150</v>
@@ -2136,7 +2010,7 @@
         <v>0.06</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
@@ -2151,14 +2025,14 @@
         <v>0.3</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003006/</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,7 +2040,7 @@
         <v>1000007</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="C18" s="1">
         <v>150</v>
@@ -2184,7 +2058,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -2199,14 +2073,14 @@
         <v>0.1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000007/</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,7 +2088,7 @@
         <v>1001007</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
@@ -2232,7 +2106,7 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -2247,14 +2121,14 @@
         <v>0.1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001007/</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,7 +2136,7 @@
         <v>1002007</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="C20" s="1">
         <v>150</v>
@@ -2280,7 +2154,7 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -2295,14 +2169,14 @@
         <v>0.1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002007/</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,7 +2184,7 @@
         <v>1001008</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -2328,7 +2202,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -2343,14 +2217,14 @@
         <v>0.3</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001008/</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,7 +2232,7 @@
         <v>1002008</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="C22" s="1">
         <v>150</v>
@@ -2376,7 +2250,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -2391,14 +2265,14 @@
         <v>0.3</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002008/</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,7 +2280,7 @@
         <v>1003008</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="C23" s="1">
         <v>150</v>
@@ -2424,7 +2298,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -2439,14 +2313,14 @@
         <v>0.3</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003008/</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,50 +2393,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2580,9 +2454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3F0F3C-A656-4EC0-A859-21F1263F0A34}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2599,55 +2473,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,7 +2529,7 @@
         <v>1010000</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -2673,20 +2547,20 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="P2" s="1" t="str">
         <f t="shared" ref="P2:P23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1010000/</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,7 +2568,7 @@
         <v>1011000</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -2712,7 +2586,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -2722,7 +2596,7 @@
         <v>/Sprites/Tower/1011000/</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,7 +2604,7 @@
         <v>1010001</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -2748,7 +2622,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -2758,7 +2632,7 @@
         <v>/Sprites/Tower/1010001/</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,7 +2640,7 @@
         <v>1011001</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -2784,7 +2658,7 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -2803,7 +2677,7 @@
         <v>/Sprites/Tower/1011001/</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,7 +2685,7 @@
         <v>1012001</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -2829,7 +2703,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -2847,14 +2721,14 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012001/</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,7 +2736,7 @@
         <v>1010002</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -2880,20 +2754,20 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010002/</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,7 +2775,7 @@
         <v>1011002</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -2919,20 +2793,20 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011002/</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,7 +2814,7 @@
         <v>1012002</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -2958,20 +2832,20 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012002/</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,7 +2853,7 @@
         <v>1010003</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -2997,7 +2871,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -3012,14 +2886,14 @@
         <v>0.3</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010003/</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,7 +2901,7 @@
         <v>1011003</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -3045,7 +2919,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -3060,14 +2934,14 @@
         <v>0.3</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011003/</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,7 +2949,7 @@
         <v>1012003</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -3093,7 +2967,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -3108,14 +2982,14 @@
         <v>0.3</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012003/</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,7 +2997,7 @@
         <v>1011004</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -3141,20 +3015,20 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011004/</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,7 +3036,7 @@
         <v>1012004</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -3180,20 +3054,20 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012004/</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,7 +3075,7 @@
         <v>1010005</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
@@ -3219,7 +3093,7 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -3234,14 +3108,14 @@
         <v>0.3</v>
       </c>
       <c r="N15" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010005/</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,7 +3123,7 @@
         <v>1011005</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="C16" s="1">
         <v>150</v>
@@ -3267,7 +3141,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -3282,14 +3156,14 @@
         <v>0.3</v>
       </c>
       <c r="N16" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011005/</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,7 +3171,7 @@
         <v>1012005</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="C17" s="1">
         <v>150</v>
@@ -3315,7 +3189,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -3330,14 +3204,14 @@
         <v>0.3</v>
       </c>
       <c r="N17" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012005/</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,7 +3219,7 @@
         <v>1010006</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="C18" s="1">
         <v>150</v>
@@ -3363,7 +3237,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -3378,14 +3252,14 @@
         <v>0.15</v>
       </c>
       <c r="N18" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010006/</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,7 +3267,7 @@
         <v>1011006</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
@@ -3411,7 +3285,7 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -3426,14 +3300,14 @@
         <v>0.15</v>
       </c>
       <c r="N19" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011006/</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,7 +3315,7 @@
         <v>1012006</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="C20" s="1">
         <v>150</v>
@@ -3459,7 +3333,7 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -3474,14 +3348,14 @@
         <v>0.15</v>
       </c>
       <c r="N20" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012006/</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,7 +3363,7 @@
         <v>1013006</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -3507,7 +3381,7 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
@@ -3522,14 +3396,14 @@
         <v>0.15</v>
       </c>
       <c r="N21" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013006/</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,7 +3411,7 @@
         <v>1012007</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="C22" s="1">
         <v>150</v>
@@ -3555,7 +3429,7 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -3573,14 +3447,14 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012007/</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,7 +3462,7 @@
         <v>1013007</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="C23" s="1">
         <v>150</v>
@@ -3606,7 +3480,7 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -3624,14 +3498,14 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013007/</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,7 +3561,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3706,55 +3580,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,7 +3636,7 @@
         <v>1020000</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -3780,7 +3654,7 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -3795,17 +3669,17 @@
         <v>0.3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>240</v>
+        <v>103</v>
       </c>
       <c r="P2" s="1" t="str">
         <f t="shared" ref="P2:P25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1020000/</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,7 +3687,7 @@
         <v>1021000</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -3831,7 +3705,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -3846,7 +3720,7 @@
         <v>0.3</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="O3"/>
       <c r="P3" s="1" t="str">
@@ -3854,7 +3728,7 @@
         <v>/Sprites/Tower/1021000/</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,7 +3736,7 @@
         <v>1020001</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -3880,7 +3754,7 @@
         <v>0.05</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
@@ -3895,14 +3769,14 @@
         <v>0.1</v>
       </c>
       <c r="O4" t="s">
-        <v>241</v>
+        <v>104</v>
       </c>
       <c r="P4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020001/</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,7 +3784,7 @@
         <v>1021001</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -3928,7 +3802,7 @@
         <v>0.05</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -3947,7 +3821,7 @@
         <v>/Sprites/Tower/1021001/</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,7 +3829,7 @@
         <v>1022001</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -3973,7 +3847,7 @@
         <v>0.05</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -3992,7 +3866,7 @@
         <v>/Sprites/Tower/1022001/</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,7 +3874,7 @@
         <v>1020002</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -4018,7 +3892,7 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -4037,7 +3911,7 @@
         <v>/Sprites/Tower/1020002/</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,7 +3919,7 @@
         <v>1021002</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -4063,7 +3937,7 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -4082,7 +3956,7 @@
         <v>/Sprites/Tower/1021002/</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,7 +3964,7 @@
         <v>1022002</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -4108,7 +3982,7 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -4127,7 +4001,7 @@
         <v>/Sprites/Tower/1022002/</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,7 +4009,7 @@
         <v>1020003</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -4153,7 +4027,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -4168,14 +4042,14 @@
         <v>0.3</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="P10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020003/</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,7 +4057,7 @@
         <v>1021003</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -4201,7 +4075,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -4216,14 +4090,14 @@
         <v>0.3</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021003/</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,7 +4105,7 @@
         <v>1022003</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -4249,7 +4123,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -4264,14 +4138,14 @@
         <v>0.3</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022003/</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,7 +4153,7 @@
         <v>1020004</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -4297,7 +4171,7 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -4307,7 +4181,7 @@
         <v>/Sprites/Tower/1020004/</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,7 +4189,7 @@
         <v>1021004</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -4333,7 +4207,7 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -4343,7 +4217,7 @@
         <v>/Sprites/Tower/1021004/</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,7 +4225,7 @@
         <v>1022004</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
@@ -4369,7 +4243,7 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -4379,7 +4253,7 @@
         <v>/Sprites/Tower/1022004/</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,7 +4261,7 @@
         <v>1020005</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="C16" s="1">
         <v>150</v>
@@ -4405,7 +4279,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -4424,7 +4298,7 @@
         <v>/Sprites/Tower/1020005/</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,7 +4306,7 @@
         <v>1021005</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="C17" s="1">
         <v>150</v>
@@ -4450,7 +4324,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -4469,7 +4343,7 @@
         <v>/Sprites/Tower/1021005/</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,7 +4351,7 @@
         <v>1022005</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="C18" s="1">
         <v>150</v>
@@ -4495,7 +4369,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -4514,7 +4388,7 @@
         <v>/Sprites/Tower/1022005/</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,7 +4396,7 @@
         <v>1020006</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
@@ -4540,20 +4414,20 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>243</v>
+        <v>106</v>
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020006/</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,7 +4435,7 @@
         <v>1021006</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="C20" s="1">
         <v>150</v>
@@ -4579,20 +4453,20 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="P20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021006/</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,7 +4474,7 @@
         <v>1020007</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -4618,20 +4492,20 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>244</v>
+        <v>107</v>
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020007/</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,7 +4513,7 @@
         <v>1022007</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="C22" s="1">
         <v>150</v>
@@ -4657,20 +4531,20 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>244</v>
+        <v>107</v>
       </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022007/</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,7 +4552,7 @@
         <v>1020008</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="C23" s="1">
         <v>150</v>
@@ -4696,7 +4570,7 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="I23" s="1">
         <v>2</v>
@@ -4711,14 +4585,14 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="O23" t="s">
-        <v>245</v>
+        <v>108</v>
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020008/</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,7 +4600,7 @@
         <v>1021008</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="C24" s="1">
         <v>150</v>
@@ -4744,7 +4618,7 @@
         <v>0.1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
@@ -4763,7 +4637,7 @@
         <v>/Sprites/Tower/1021008/</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,7 +4645,7 @@
         <v>1022008</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="C25" s="1">
         <v>150</v>
@@ -4789,7 +4663,7 @@
         <v>0.1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
@@ -4808,7 +4682,7 @@
         <v>/Sprites/Tower/1022008/</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,7 +4732,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4874,34 +4748,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -4910,7 +4784,7 @@
         <v>2000000</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -4935,7 +4809,7 @@
         <v>/Sprites/Enemy/2000000/</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4943,7 +4817,7 @@
         <v>2000001</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -4968,7 +4842,7 @@
         <v>/Sprites/Enemy/2000001/</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -4976,7 +4850,7 @@
         <v>2000002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -5001,7 +4875,7 @@
         <v>/Sprites/Enemy/2000002/</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5009,7 +4883,7 @@
         <v>2001002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -5034,7 +4908,7 @@
         <v>/Sprites/Enemy/2001002/</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5042,7 +4916,7 @@
         <v>2001003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -5067,7 +4941,7 @@
         <v>/Sprites/Enemy/2001003/</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5075,7 +4949,7 @@
         <v>2001004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -5100,7 +4974,7 @@
         <v>/Sprites/Enemy/2001004/</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5108,7 +4982,7 @@
         <v>2002005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -5133,7 +5007,7 @@
         <v>/Sprites/Enemy/2002005/</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5141,7 +5015,7 @@
         <v>2000100</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -5166,7 +5040,7 @@
         <v>/Sprites/Enemy/2000100/</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5174,7 +5048,7 @@
         <v>2000101</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -5199,7 +5073,7 @@
         <v>/Sprites/Enemy/2000101/</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5207,7 +5081,7 @@
         <v>2000102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -5232,7 +5106,7 @@
         <v>/Sprites/Enemy/2000102/</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5240,7 +5114,7 @@
         <v>2001102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -5265,7 +5139,7 @@
         <v>/Sprites/Enemy/2001102/</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5273,7 +5147,7 @@
         <v>2001103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -5298,7 +5172,7 @@
         <v>/Sprites/Enemy/2001103/</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5306,7 +5180,7 @@
         <v>2001104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -5331,7 +5205,7 @@
         <v>/Sprites/Enemy/2001104/</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5339,7 +5213,7 @@
         <v>2002105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -5364,7 +5238,7 @@
         <v>/Sprites/Enemy/2002105/</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5384,7 +5258,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5400,34 +5274,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -5436,7 +5310,7 @@
         <v>2010000</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -5461,7 +5335,7 @@
         <v>/Sprites/Enemy/2010000/</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5469,7 +5343,7 @@
         <v>2010001</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -5494,7 +5368,7 @@
         <v>/Sprites/Enemy/2010001/</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5502,7 +5376,7 @@
         <v>2010002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -5527,7 +5401,7 @@
         <v>/Sprites/Enemy/2010002/</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5535,7 +5409,7 @@
         <v>2011002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -5560,7 +5434,7 @@
         <v>/Sprites/Enemy/2011002/</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5568,7 +5442,7 @@
         <v>2011003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -5593,7 +5467,7 @@
         <v>/Sprites/Enemy/2011003/</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5601,7 +5475,7 @@
         <v>2011004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -5626,7 +5500,7 @@
         <v>/Sprites/Enemy/2011004/</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5634,7 +5508,7 @@
         <v>2012005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -5659,7 +5533,7 @@
         <v>/Sprites/Enemy/2012005/</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5667,7 +5541,7 @@
         <v>2010100</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -5692,7 +5566,7 @@
         <v>/Sprites/Enemy/2010100/</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5700,7 +5574,7 @@
         <v>2010101</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -5725,7 +5599,7 @@
         <v>/Sprites/Enemy/2010101/</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5733,7 +5607,7 @@
         <v>2010102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -5758,7 +5632,7 @@
         <v>/Sprites/Enemy/2010102/</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5766,7 +5640,7 @@
         <v>2011102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -5791,7 +5665,7 @@
         <v>/Sprites/Enemy/2011102/</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5799,7 +5673,7 @@
         <v>2011103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -5824,7 +5698,7 @@
         <v>/Sprites/Enemy/2011103/</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5832,7 +5706,7 @@
         <v>2011104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -5857,7 +5731,7 @@
         <v>/Sprites/Enemy/2011104/</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5865,7 +5739,7 @@
         <v>2012105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -5890,7 +5764,7 @@
         <v>/Sprites/Enemy/2012105/</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5910,7 +5784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5925,34 +5799,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -5961,7 +5835,7 @@
         <v>2020000</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -5986,7 +5860,7 @@
         <v>/Sprites/Enemy/2020000/</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5994,7 +5868,7 @@
         <v>2020001</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -6019,7 +5893,7 @@
         <v>/Sprites/Enemy/2020001/</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6027,7 +5901,7 @@
         <v>2020002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -6052,7 +5926,7 @@
         <v>/Sprites/Enemy/2020002/</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6060,7 +5934,7 @@
         <v>2021002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>238</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -6085,7 +5959,7 @@
         <v>/Sprites/Enemy/2021002/</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6093,7 +5967,7 @@
         <v>2021003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -6118,7 +5992,7 @@
         <v>/Sprites/Enemy/2021003/</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6126,7 +6000,7 @@
         <v>2021004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -6151,7 +6025,7 @@
         <v>/Sprites/Enemy/2021004/</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6159,7 +6033,7 @@
         <v>2022005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -6184,7 +6058,7 @@
         <v>/Sprites/Enemy/2022005/</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6192,7 +6066,7 @@
         <v>2020100</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -6217,7 +6091,7 @@
         <v>/Sprites/Enemy/2020100/</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -6225,7 +6099,7 @@
         <v>2020101</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -6250,7 +6124,7 @@
         <v>/Sprites/Enemy/2020101/</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -6258,7 +6132,7 @@
         <v>2020102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -6283,7 +6157,7 @@
         <v>/Sprites/Enemy/2020102/</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -6291,7 +6165,7 @@
         <v>2021102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -6316,7 +6190,7 @@
         <v>/Sprites/Enemy/2021102/</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -6324,7 +6198,7 @@
         <v>2021103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -6349,7 +6223,7 @@
         <v>/Sprites/Enemy/2021103/</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -6357,7 +6231,7 @@
         <v>2021104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -6382,7 +6256,7 @@
         <v>/Sprites/Enemy/2021104/</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -6390,7 +6264,7 @@
         <v>2022105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -6415,7 +6289,7 @@
         <v>/Sprites/Enemy/2022105/</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -6433,8 +6307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF271AF4-E94B-43D7-A6A9-013F378630A5}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6445,13 +6319,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6459,7 +6333,7 @@
         <v>3000000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6467,7 +6341,7 @@
         <v>3000001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -6479,7 +6353,7 @@
         <v>3001999</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6487,7 +6361,7 @@
         <v>3001000</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6495,7 +6369,7 @@
         <v>3001001</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6503,7 +6377,7 @@
         <v>3001002</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6514,7 +6388,7 @@
         <v>3002000</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6522,7 +6396,7 @@
         <v>3002001</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6530,7 +6404,7 @@
         <v>3002002</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6538,7 +6412,7 @@
         <v>3002003</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -6546,10 +6420,10 @@
         <v>3100000</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -6557,10 +6431,10 @@
         <v>3100001</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6568,10 +6442,10 @@
         <v>3100002</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6579,10 +6453,10 @@
         <v>3101000</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6590,10 +6464,10 @@
         <v>3101001</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6601,10 +6475,10 @@
         <v>3101002</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6612,10 +6486,10 @@
         <v>3101003</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6623,10 +6497,10 @@
         <v>3101004</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>221</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6634,10 +6508,10 @@
         <v>3101005</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>222</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6645,7 +6519,7 @@
         <v>3200000</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -6653,7 +6527,7 @@
         <v>3200001</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -6661,7 +6535,7 @@
         <v>3200002</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -6669,7 +6543,7 @@
         <v>3201000</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -6677,7 +6551,7 @@
         <v>3201001</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -6688,7 +6562,7 @@
         <v>3201100</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -6696,7 +6570,7 @@
         <v>3201101</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -6704,7 +6578,7 @@
         <v>3201102</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -6715,7 +6589,7 @@
         <v>3201200</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -6723,7 +6597,7 @@
         <v>3201201</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -6731,7 +6605,7 @@
         <v>3201202</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -6747,7 +6621,7 @@
         <v>3202000</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -6755,7 +6629,7 @@
         <v>3202001</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -6763,7 +6637,7 @@
         <v>3202002</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -6771,7 +6645,7 @@
         <v>3202003</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -6779,7 +6653,7 @@
         <v>3202004</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -6787,7 +6661,7 @@
         <v>3202005</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -6795,7 +6669,7 @@
         <v>3300000</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -6803,7 +6677,7 @@
         <v>3300001</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -6811,7 +6685,7 @@
         <v>3300002</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -6819,7 +6693,7 @@
         <v>3301000</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -6827,7 +6701,7 @@
         <v>3301001</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -6835,7 +6709,7 @@
         <v>3301002</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6851,23 +6725,74 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8E4527-3365-487A-B440-8E1995F53AC4}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="60.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>213</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9030000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>9030001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>9030002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9030003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9030004</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9030005</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6947,16 +6872,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -7001,16 +6926,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -7029,51 +6954,51 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>232</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -7089,16 +7014,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E10CA6-D204-4D83-9584-B26AFCEEB181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72356E08-07F0-4E3E-8C61-F642F7C7B653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26940" yWindow="5295" windowWidth="21735" windowHeight="14130" tabRatio="831" activeTab="7" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
@@ -6728,7 +6728,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
